--- a/tests/frameworks/framework_malaria.xlsx
+++ b/tests/frameworks/framework_malaria.xlsx
@@ -883,7 +883,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Chris Kuschel:</t>
         </r>
@@ -892,14 +892,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 arbitrary value</t>
         </r>
       </text>
     </comment>
-    <comment ref="C28" authorId="1">
+    <comment ref="C31" authorId="1">
       <text>
         <r>
           <rPr>
@@ -907,7 +907,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Chris Kuschel:</t>
         </r>
@@ -916,14 +916,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Is there a way to make this a rate?</t>
         </r>
       </text>
     </comment>
-    <comment ref="D33" authorId="1">
+    <comment ref="D36" authorId="1">
       <text>
         <r>
           <rPr>
@@ -931,7 +931,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Chris Kuschel:</t>
         </r>
@@ -940,14 +940,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 arbitrary value</t>
         </r>
       </text>
     </comment>
-    <comment ref="D34" authorId="1">
+    <comment ref="D37" authorId="1">
       <text>
         <r>
           <rPr>
@@ -955,7 +955,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Chris Kuschel:</t>
         </r>
@@ -964,14 +964,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 arbitrary value</t>
         </r>
       </text>
     </comment>
-    <comment ref="C45" authorId="1">
+    <comment ref="C48" authorId="1">
       <text>
         <r>
           <rPr>
@@ -979,7 +979,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Chris Kuschel:</t>
         </r>
@@ -988,7 +988,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Is there a way to make this a rate?</t>
@@ -1352,7 +1352,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="235">
   <si>
     <t>Code Name</t>
   </si>
@@ -1810,27 +1810,9 @@
     <t>streated</t>
   </si>
   <si>
-    <t>0.0383561643835616</t>
-  </si>
-  <si>
-    <t>0.0273972602739726</t>
-  </si>
-  <si>
-    <t>0.0821917808219178</t>
-  </si>
-  <si>
-    <t>0.246575342465753</t>
-  </si>
-  <si>
-    <t>0.0547945205479452</t>
-  </si>
-  <si>
     <t>Susceptible people treated</t>
   </si>
   <si>
-    <t>Number of bites per year per mosquito</t>
-  </si>
-  <si>
     <t>num_bites</t>
   </si>
   <si>
@@ -1975,9 +1957,6 @@
     <t>Factor to modify bites in mosquito population</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>hum_bite_factor</t>
   </si>
   <si>
@@ -1993,9 +1972,6 @@
     <t>biting_rate</t>
   </si>
   <si>
-    <t>biting_rate * mpop * mos_bite_factor</t>
-  </si>
-  <si>
     <t>Number of mosquito bites distributed among human populations</t>
   </si>
   <si>
@@ -2023,9 +1999,6 @@
     <t>Mosquito births</t>
   </si>
   <si>
-    <t>mbirth_rate * mos_birth_factor</t>
-  </si>
-  <si>
     <t>mlife_expectancy</t>
   </si>
   <si>
@@ -2042,6 +2015,48 @@
   </si>
   <si>
     <t>mlife_expectancy * mos_death_factor</t>
+  </si>
+  <si>
+    <t>const</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>season</t>
+  </si>
+  <si>
+    <t>Seasonality</t>
+  </si>
+  <si>
+    <t>mbirth_seasonality</t>
+  </si>
+  <si>
+    <t>mbirth_season_max</t>
+  </si>
+  <si>
+    <t>mbirth_season_min</t>
+  </si>
+  <si>
+    <t>Maximal mosquito birth rate</t>
+  </si>
+  <si>
+    <t>Minimal mosquito birth rate</t>
+  </si>
+  <si>
+    <t>Seasonal influence on the mosquito birth rates</t>
+  </si>
+  <si>
+    <t>mbirth_rate * mos_birth_factor * mbirth_seasonality</t>
+  </si>
+  <si>
+    <t>(mbirth_season_max - mbirth_season_min) / 2 * sin(t * 2 * pi) + (mbirth_season_max + mbirth_season_min) / 2</t>
+  </si>
+  <si>
+    <t>biting_rate * mos_bite_factor * mpop / tot_pop</t>
+  </si>
+  <si>
+    <t>Number of bites per time step per mosquito per human</t>
   </si>
 </sst>
 </file>
@@ -2209,19 +2224,19 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2625,7 +2640,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2713,16 +2728,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="45" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2755,6 +2761,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="45" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -3140,7 +3161,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3189,9 +3210,21 @@
         <v>82</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>222</v>
+      </c>
+    </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -3385,7 +3418,7 @@
       <c r="A6" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="40" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="32" t="s">
@@ -3434,28 +3467,28 @@
       </c>
     </row>
     <row r="8" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47" t="s">
+      <c r="C8" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3857,7 +3890,7 @@
       <c r="K2" s="23"/>
       <c r="L2" s="23"/>
       <c r="M2" s="23"/>
-      <c r="N2" s="44"/>
+      <c r="N2" s="41"/>
       <c r="O2" s="21"/>
       <c r="P2" s="23"/>
       <c r="Q2" s="23"/>
@@ -3882,7 +3915,7 @@
       <c r="K3" s="23"/>
       <c r="L3" s="23"/>
       <c r="M3" s="23"/>
-      <c r="N3" s="44"/>
+      <c r="N3" s="41"/>
       <c r="O3" s="21"/>
       <c r="P3" s="23"/>
       <c r="Q3" s="23"/>
@@ -3907,7 +3940,7 @@
       <c r="K4" s="23"/>
       <c r="L4" s="23"/>
       <c r="M4" s="23"/>
-      <c r="N4" s="44"/>
+      <c r="N4" s="41"/>
       <c r="O4" s="21"/>
       <c r="P4" s="23"/>
       <c r="Q4" s="23"/>
@@ -3928,7 +3961,7 @@
       <c r="K5" s="23"/>
       <c r="L5" s="23"/>
       <c r="M5" s="23"/>
-      <c r="N5" s="44"/>
+      <c r="N5" s="41"/>
       <c r="O5" s="21"/>
       <c r="P5" s="23"/>
       <c r="Q5" s="23"/>
@@ -4142,7 +4175,7 @@
         <f>Compartments!$A15</f>
         <v>htx</v>
       </c>
-      <c r="B15" s="45"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="22"/>
       <c r="D15" s="20"/>
       <c r="E15" s="22"/>
@@ -4387,24 +4420,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="70.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="101.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
@@ -4435,7 +4468,7 @@
         <v>14</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="I1" s="35" t="s">
         <v>6</v>
@@ -4652,10 +4685,10 @@
     </row>
     <row r="8" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>158</v>
+        <v>234</v>
       </c>
       <c r="C8" s="36" t="s">
         <v>22</v>
@@ -4682,10 +4715,10 @@
     </row>
     <row r="9" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C9" s="36" t="s">
         <v>87</v>
@@ -4696,12 +4729,8 @@
       <c r="E9" s="36">
         <v>0</v>
       </c>
-      <c r="F9" s="36">
-        <v>1</v>
-      </c>
-      <c r="G9" s="54" t="s">
-        <v>207</v>
-      </c>
+      <c r="F9" s="36"/>
+      <c r="G9" s="51"/>
       <c r="H9" s="36" t="s">
         <v>8</v>
       </c>
@@ -4711,15 +4740,17 @@
       <c r="J9" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="36"/>
+      <c r="K9" s="36" t="s">
+        <v>221</v>
+      </c>
       <c r="L9" s="36"/>
     </row>
     <row r="10" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C10" s="36" t="s">
         <v>87</v>
@@ -4730,12 +4761,8 @@
       <c r="E10" s="36">
         <v>0</v>
       </c>
-      <c r="F10" s="36">
-        <v>1</v>
-      </c>
-      <c r="G10" s="54" t="s">
-        <v>207</v>
-      </c>
+      <c r="F10" s="36"/>
+      <c r="G10" s="51"/>
       <c r="H10" s="36" t="s">
         <v>8</v>
       </c>
@@ -4745,15 +4772,17 @@
       <c r="J10" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="36"/>
+      <c r="K10" s="36" t="s">
+        <v>221</v>
+      </c>
       <c r="L10" s="36"/>
     </row>
     <row r="11" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C11" s="36" t="s">
         <v>87</v>
@@ -4764,12 +4793,8 @@
       <c r="E11" s="36">
         <v>0</v>
       </c>
-      <c r="F11" s="36">
-        <v>1</v>
-      </c>
-      <c r="G11" s="54" t="s">
-        <v>207</v>
-      </c>
+      <c r="F11" s="36"/>
+      <c r="G11" s="51"/>
       <c r="H11" s="36" t="s">
         <v>8</v>
       </c>
@@ -4779,12 +4804,14 @@
       <c r="J11" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="K11" s="36"/>
+      <c r="K11" s="36" t="s">
+        <v>221</v>
+      </c>
       <c r="L11" s="36"/>
     </row>
     <row r="12" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="B12" s="36" t="s">
         <v>160</v>
@@ -4798,7 +4825,7 @@
       </c>
       <c r="F12" s="36"/>
       <c r="G12" s="28" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>7</v>
@@ -4814,10 +4841,10 @@
     </row>
     <row r="13" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>214</v>
+        <v>154</v>
       </c>
       <c r="C13" s="36" t="s">
         <v>22</v>
@@ -4828,7 +4855,7 @@
       </c>
       <c r="F13" s="36"/>
       <c r="G13" s="28" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>7</v>
@@ -4844,10 +4871,10 @@
     </row>
     <row r="14" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="C14" s="36" t="s">
         <v>22</v>
@@ -4858,7 +4885,7 @@
       </c>
       <c r="F14" s="36"/>
       <c r="G14" s="28" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>7</v>
@@ -4874,10 +4901,10 @@
     </row>
     <row r="15" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C15" s="36" t="s">
         <v>22</v>
@@ -4888,7 +4915,7 @@
       </c>
       <c r="F15" s="36"/>
       <c r="G15" s="28" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>7</v>
@@ -4904,10 +4931,10 @@
     </row>
     <row r="16" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C16" s="36" t="s">
         <v>87</v>
@@ -4920,7 +4947,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>7</v>
@@ -4996,10 +5023,10 @@
     </row>
     <row r="19" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="38" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C19" s="36" t="s">
         <v>22</v>
@@ -5010,7 +5037,7 @@
       </c>
       <c r="F19" s="36"/>
       <c r="G19" s="36" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>7</v>
@@ -5026,10 +5053,10 @@
     </row>
     <row r="20" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="38" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C20" s="36" t="s">
         <v>22</v>
@@ -5040,7 +5067,7 @@
       </c>
       <c r="F20" s="36"/>
       <c r="G20" s="36" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>7</v>
@@ -5056,10 +5083,10 @@
     </row>
     <row r="21" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="38" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C21" s="36" t="s">
         <v>22</v>
@@ -5070,7 +5097,7 @@
       </c>
       <c r="F21" s="36"/>
       <c r="G21" s="36" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>7</v>
@@ -5094,7 +5121,7 @@
       <c r="C22" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="52">
+      <c r="D22" s="49">
         <v>0.5</v>
       </c>
       <c r="E22" s="36">
@@ -5119,7 +5146,7 @@
       <c r="L22" s="36"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="39" t="s">
         <v>109</v>
       </c>
       <c r="B23" s="37" t="s">
@@ -5151,7 +5178,7 @@
       <c r="L23" s="36"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="39" t="str">
+      <c r="A24" s="52" t="str">
         <f>Transitions!C2</f>
         <v>mexposed</v>
       </c>
@@ -5168,7 +5195,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>7</v>
@@ -5182,7 +5209,7 @@
       <c r="L24" s="36"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="str">
+      <c r="A25" s="53" t="str">
         <f>Transitions!D3</f>
         <v>minfected</v>
       </c>
@@ -5215,10 +5242,10 @@
     </row>
     <row r="26" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="38" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C26" s="36" t="s">
         <v>87</v>
@@ -5229,12 +5256,8 @@
       <c r="E26" s="36">
         <v>0</v>
       </c>
-      <c r="F26" s="36">
-        <v>1</v>
-      </c>
-      <c r="G26" s="54" t="s">
-        <v>207</v>
-      </c>
+      <c r="F26" s="36"/>
+      <c r="G26" s="51"/>
       <c r="H26" s="36" t="s">
         <v>8</v>
       </c>
@@ -5244,15 +5267,17 @@
       <c r="J26" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="K26" s="36"/>
+      <c r="K26" s="36" t="s">
+        <v>221</v>
+      </c>
       <c r="L26" s="36"/>
     </row>
     <row r="27" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="38" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C27" s="36" t="s">
         <v>22</v>
@@ -5262,7 +5287,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="36"/>
-      <c r="G27" s="54"/>
+      <c r="G27" s="51"/>
       <c r="H27" s="36" t="s">
         <v>7</v>
       </c>
@@ -5278,249 +5303,242 @@
       <c r="L27" s="36"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="str">
+      <c r="A28" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0</v>
+      </c>
+      <c r="H28" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36">
+        <v>0</v>
+      </c>
+      <c r="F30" s="36"/>
+      <c r="G30" s="51" t="s">
+        <v>232</v>
+      </c>
+      <c r="H30" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="53" t="str">
         <f>Transitions!B6</f>
         <v>mnew</v>
       </c>
-      <c r="B28" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="C28" s="51" t="s">
+      <c r="B31" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="C31" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36">
+      <c r="D31" s="36"/>
+      <c r="E31" s="36">
         <v>0</v>
       </c>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L28" s="36"/>
-    </row>
-    <row r="29" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="B29" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="C29" s="36" t="s">
+      <c r="F31" s="36"/>
+      <c r="G31" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L31" s="36"/>
+    </row>
+    <row r="32" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="C32" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="36">
+      <c r="D32" s="36">
         <v>1</v>
       </c>
-      <c r="E29" s="36">
+      <c r="E32" s="36">
         <v>0</v>
       </c>
-      <c r="F29" s="36">
-        <v>1</v>
-      </c>
-      <c r="G29" s="54" t="s">
-        <v>207</v>
-      </c>
-      <c r="H29" s="36" t="s">
+      <c r="F32" s="36"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="J29" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-    </row>
-    <row r="30" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="38" t="s">
-        <v>224</v>
-      </c>
-      <c r="B30" s="36" t="s">
+      <c r="I32" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="L32" s="36"/>
+    </row>
+    <row r="33" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="B33" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C33" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="36">
+      <c r="D33" s="36">
         <f>35/365</f>
         <v>9.5890410958904104E-2</v>
       </c>
-      <c r="E30" s="36">
+      <c r="E33" s="36">
         <v>0</v>
       </c>
-      <c r="F30" s="36"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="I30" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="J30" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="K30" s="36" t="s">
+      <c r="F33" s="36"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="K33" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="L30" s="36"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="40" t="str">
+      <c r="L33" s="36"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="54" t="str">
         <f>Transitions!E4</f>
         <v>mdeath</v>
       </c>
-      <c r="B31" s="37" t="s">
-        <v>225</v>
-      </c>
-      <c r="C31" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37">
+      <c r="B34" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37">
         <v>0</v>
       </c>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="H31" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="I31" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="J31" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="K31" s="37"/>
-      <c r="L31" s="36"/>
-    </row>
-    <row r="32" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="str">
+      <c r="F34" s="37"/>
+      <c r="G34" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="H34" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="J34" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="K34" s="37"/>
+      <c r="L34" s="36"/>
+    </row>
+    <row r="35" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="52" t="str">
         <f>Transitions!I7</f>
         <v>exposed</v>
       </c>
-      <c r="B32" s="38" t="s">
+      <c r="B35" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C35" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="38">
-        <v>0</v>
-      </c>
-      <c r="F32" s="5">
-        <v>1</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K32" s="5"/>
-      <c r="L32" s="36"/>
-    </row>
-    <row r="33" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="39" t="str">
-        <f>Transitions!H7</f>
-        <v>symp</v>
-      </c>
-      <c r="B33" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="50">
-        <f>1/1000</f>
-        <v>1E-3</v>
-      </c>
-      <c r="E33" s="38">
-        <v>0</v>
-      </c>
-      <c r="F33" s="5">
-        <v>1</v>
-      </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="L33" s="5"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="B34" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" s="50">
-        <f>7/365</f>
-        <v>1.9178082191780823E-2</v>
-      </c>
-      <c r="E34" s="38">
-        <v>0</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K34" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="B35" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="38">
         <v>0</v>
       </c>
-      <c r="F35" s="5"/>
+      <c r="F35" s="5">
+        <v>1</v>
+      </c>
       <c r="G35" s="5" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>7</v>
@@ -5532,26 +5550,30 @@
         <v>7</v>
       </c>
       <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
+      <c r="L35" s="36"/>
     </row>
     <row r="36" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="39" t="s">
-        <v>146</v>
+      <c r="A36" s="52" t="str">
+        <f>Transitions!H7</f>
+        <v>symp</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="D36" s="47">
+        <f>1/1000</f>
+        <v>1E-3</v>
+      </c>
       <c r="E36" s="38">
         <v>0</v>
       </c>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5" t="s">
-        <v>201</v>
-      </c>
+      <c r="F36" s="5">
+        <v>1</v>
+      </c>
+      <c r="G36" s="5"/>
       <c r="H36" s="5" t="s">
         <v>7</v>
       </c>
@@ -5561,302 +5583,398 @@
       <c r="J36" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K36" s="5"/>
+      <c r="K36" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="L36" s="5"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="39" t="str">
+      <c r="A37" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="47">
+        <f>7/365</f>
+        <v>1.9178082191780823E-2</v>
+      </c>
+      <c r="E37" s="38">
+        <v>0</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="B38" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="38">
+        <v>0</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+    </row>
+    <row r="39" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="B39" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="38">
+        <v>0</v>
+      </c>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="52" t="str">
         <f>Transitions!J9</f>
         <v>infected</v>
       </c>
-      <c r="B37" s="38" t="s">
+      <c r="B40" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D40" s="5">
         <f>14/365</f>
         <v>3.8356164383561646E-2</v>
       </c>
-      <c r="E37" s="38">
+      <c r="E40" s="38">
         <v>0</v>
       </c>
-      <c r="G37" s="53" t="s">
-        <v>152</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="39" t="str">
+      <c r="G40" s="50"/>
+      <c r="H40" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="52" t="str">
         <f>Transitions!K10</f>
         <v>dev_imm</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B41" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C41" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D41" s="5">
         <f>10/365</f>
         <v>2.7397260273972601E-2</v>
       </c>
-      <c r="E38" s="38">
+      <c r="E41" s="38">
         <v>0</v>
       </c>
-      <c r="G38" s="53" t="s">
-        <v>153</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="39" t="str">
+      <c r="G41" s="50"/>
+      <c r="H41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="52" t="str">
         <f>Transitions!M11</f>
         <v>wan_imm</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B42" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C42" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D42" s="5">
         <f>30/365</f>
         <v>8.2191780821917804E-2</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E42" s="5">
         <f>5/365</f>
         <v>1.3698630136986301E-2</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F42" s="5">
         <f>60/365</f>
         <v>0.16438356164383561</v>
       </c>
-      <c r="G39" s="53" t="s">
-        <v>154</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I39" s="5" t="s">
+      <c r="G42" s="50"/>
+      <c r="H42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J39" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="39" t="str">
+      <c r="J42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="52" t="str">
         <f>Transitions!G13</f>
         <v>los_imm</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B43" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C43" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D43" s="5">
         <f>90/365</f>
         <v>0.24657534246575341</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E43" s="5">
         <f>60/365</f>
         <v>0.16438356164383561</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F43" s="5">
         <v>5</v>
       </c>
-      <c r="G40" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I40" s="5" t="s">
+      <c r="G43" s="50"/>
+      <c r="H43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J40" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="41" t="str">
+      <c r="J43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="L43" s="5"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="55" t="str">
         <f>Transitions!G15</f>
         <v>recover</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B44" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C44" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D44" s="5">
         <f>20/365</f>
         <v>5.4794520547945202E-2</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E44" s="5">
         <v>0</v>
       </c>
-      <c r="G41" s="53" t="s">
-        <v>156</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="42" t="str">
+      <c r="G44" s="50"/>
+      <c r="H44" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="56" t="str">
         <f>Transitions!O8</f>
         <v>streated</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C42" s="5" t="s">
+      <c r="B45" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E45" s="5">
         <v>0</v>
       </c>
-      <c r="G42" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="42" t="str">
+      <c r="G45" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="56" t="str">
         <f>Transitions!O10</f>
         <v>treated</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B46" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C46" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5">
+      <c r="D46" s="5"/>
+      <c r="E46" s="5">
         <v>0</v>
       </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J43" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="39" t="str">
+      <c r="F46" s="5"/>
+      <c r="G46" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="52" t="str">
         <f>Transitions!P7</f>
         <v>death</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B47" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C47" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E47" s="5">
         <v>0</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F47" s="5">
         <v>1</v>
       </c>
-      <c r="H44" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J44" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K44" s="5" t="s">
+      <c r="H47" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K47" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="39" t="str">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="52" t="str">
         <f>Transitions!G18</f>
         <v>birth</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B48" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C45" s="51" t="s">
+      <c r="C48" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E48" s="5">
         <v>0</v>
       </c>
-      <c r="H45" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J45" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K45" s="5" t="s">
+      <c r="H48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K48" s="5" t="s">
         <v>103</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:J45">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:J15 H16:J48">
       <formula1>"y,n"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C45">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C15 C16:C48">
       <formula1>",number,probability,duration,proportion"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5963,26 +6081,26 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47">
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44">
         <v>0</v>
       </c>
       <c r="G4" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47" t="s">
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6082,7 +6200,7 @@
       <c r="G8" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="47" t="s">
+      <c r="H8" s="44" t="s">
         <v>81</v>
       </c>
       <c r="J8" s="9" t="s">
@@ -6109,7 +6227,7 @@
       <c r="G9" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="47" t="s">
+      <c r="H9" s="44" t="s">
         <v>103</v>
       </c>
       <c r="J9" s="9" t="s">
@@ -6147,16 +6265,16 @@
       <c r="G16" s="9"/>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="47"/>
+      <c r="C20" s="44"/>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="47"/>
+      <c r="C21" s="44"/>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="47"/>
+      <c r="C22" s="44"/>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="47"/>
+      <c r="C23" s="44"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -6185,46 +6303,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="43" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
-        <v>161</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="C2" s="47">
+      <c r="A2" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="44">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>211</v>
-      </c>
-      <c r="C3" s="47">
+      <c r="A3" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="44">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
-        <v>173</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>170</v>
-      </c>
-      <c r="C4" s="47">
+      <c r="A4" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="44">
         <v>1</v>
       </c>
     </row>
@@ -6322,47 +6440,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="43" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>60</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>54</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -6370,13 +6488,13 @@
         <v>121</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -6384,13 +6502,13 @@
         <v>124</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -6398,69 +6516,69 @@
         <v>112</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>111</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C9" t="s">
         <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C10" t="s">
         <v>53</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/tests/frameworks/framework_malaria.xlsx
+++ b/tests/frameworks/framework_malaria.xlsx
@@ -1352,7 +1352,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="243">
   <si>
     <t>Code Name</t>
   </si>
@@ -2057,6 +2057,30 @@
   </si>
   <si>
     <t>Number of bites per time step per mosquito per human</t>
+  </si>
+  <si>
+    <t>dalys</t>
+  </si>
+  <si>
+    <t>DALYs</t>
+  </si>
+  <si>
+    <t>daly</t>
+  </si>
+  <si>
+    <t>daly_weight</t>
+  </si>
+  <si>
+    <t>Disability weight</t>
+  </si>
+  <si>
+    <t>avg_years_lost</t>
+  </si>
+  <si>
+    <t>Average years lost due to premature death</t>
+  </si>
+  <si>
+    <t>cumsum(all_inf * daly_weight + avg_years_lost * mal_death)</t>
   </si>
 </sst>
 </file>
@@ -2640,7 +2664,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2776,6 +2800,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="45" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -3161,7 +3188,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3227,8 +3254,12 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
@@ -3261,7 +3292,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A15"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4420,13 +4451,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5937,38 +5968,129 @@
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="52" t="str">
+      <c r="A48" s="54" t="str">
         <f>Transitions!G18</f>
         <v>birth</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="C48" s="48" t="s">
+      <c r="C48" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="E48" s="5">
+      <c r="D48" s="37"/>
+      <c r="E48" s="37">
         <v>0</v>
       </c>
-      <c r="H48" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J48" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K48" s="5" t="s">
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="I48" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="J48" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="K48" s="37" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5">
+        <v>0</v>
+      </c>
+      <c r="F49" s="5">
+        <v>1</v>
+      </c>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="L49" s="5"/>
+    </row>
+    <row r="50" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5">
+        <v>0</v>
+      </c>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="L50" s="5"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51" s="5">
+        <v>0</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:J15 H16:J48">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:J51">
       <formula1>"y,n"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C15 C16:C48">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C51">
       <formula1>",number,probability,duration,proportion"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5983,7 +6105,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6425,10 +6547,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6581,6 +6703,20 @@
         <v>176</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>236</v>
+      </c>
+      <c r="B11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D11" t="s">
+        <v>175</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/tests/frameworks/framework_malaria.xlsx
+++ b/tests/frameworks/framework_malaria.xlsx
@@ -4454,10 +4454,10 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G52" sqref="G52"/>
+      <selection pane="bottomRight" activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5009,7 +5009,7 @@
       <c r="F17" s="36"/>
       <c r="G17" s="36"/>
       <c r="H17" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>7</v>
@@ -5039,7 +5039,7 @@
       <c r="F18" s="36"/>
       <c r="G18" s="36"/>
       <c r="H18" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>7</v>
@@ -5668,7 +5668,7 @@
         <v>194</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>7</v>
@@ -5698,7 +5698,7 @@
         <v>195</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>7</v>
@@ -5897,7 +5897,7 @@
         <v>197</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>7</v>
@@ -5926,7 +5926,7 @@
         <v>198</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I46" s="5" t="s">
         <v>7</v>

--- a/tests/frameworks/framework_malaria.xlsx
+++ b/tests/frameworks/framework_malaria.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\frameworks\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D449353E-D6DF-440F-935A-581986DF8B64}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="9" r:id="rId1"/>
@@ -17,17 +23,24 @@
     <sheet name="Cascades" sheetId="7" r:id="rId8"/>
     <sheet name="Plots" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -130,7 +143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -153,13 +166,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
     <author>Chris Kuschel</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -184,7 +197,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -327,7 +340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -353,7 +366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -378,7 +391,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -406,7 +419,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="1">
+    <comment ref="F1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -434,7 +447,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -457,7 +470,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -530,7 +543,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="1">
+    <comment ref="I1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -550,13 +563,13 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
     <author>Chris Kuschel</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -578,7 +591,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -691,7 +704,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -704,7 +717,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -717,7 +730,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
       <text>
         <r>
           <rPr>
@@ -730,7 +743,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
       <text>
         <r>
           <rPr>
@@ -743,7 +756,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
       <text>
         <r>
           <rPr>
@@ -756,7 +769,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
       <text>
         <r>
           <rPr>
@@ -773,7 +786,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
       <text>
         <r>
           <rPr>
@@ -787,7 +800,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -860,7 +873,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="1">
+    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -875,7 +888,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D22" authorId="1">
+    <comment ref="D22" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -883,7 +896,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Chris Kuschel:</t>
         </r>
@@ -892,14 +905,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 arbitrary value</t>
         </r>
       </text>
     </comment>
-    <comment ref="C28" authorId="1">
+    <comment ref="C31" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -907,7 +920,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Chris Kuschel:</t>
         </r>
@@ -916,14 +929,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Is there a way to make this a rate?</t>
         </r>
       </text>
     </comment>
-    <comment ref="D33" authorId="1">
+    <comment ref="D36" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -931,7 +944,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Chris Kuschel:</t>
         </r>
@@ -940,14 +953,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 arbitrary value</t>
         </r>
       </text>
     </comment>
-    <comment ref="D34" authorId="1">
+    <comment ref="D37" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -955,7 +968,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Chris Kuschel:</t>
         </r>
@@ -964,14 +977,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 arbitrary value</t>
         </r>
       </text>
     </comment>
-    <comment ref="C45" authorId="1">
+    <comment ref="C48" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000010000000}">
       <text>
         <r>
           <rPr>
@@ -979,7 +992,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Chris Kuschel:</t>
         </r>
@@ -988,7 +1001,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Is there a way to make this a rate?</t>
@@ -1000,13 +1013,13 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
     <author>Chris Kuschel</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1031,7 +1044,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1057,7 +1070,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1083,7 +1096,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="1">
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1097,7 +1110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="1">
+    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1110,7 +1123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1137,7 +1150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1151,7 +1164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1224,7 +1237,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="1">
+    <comment ref="I1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1244,12 +1257,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Chris Kuschel</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1273,7 +1286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1298,7 +1311,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1316,12 +1329,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1352,7 +1365,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="243">
   <si>
     <t>Code Name</t>
   </si>
@@ -1810,27 +1823,9 @@
     <t>streated</t>
   </si>
   <si>
-    <t>0.0383561643835616</t>
-  </si>
-  <si>
-    <t>0.0273972602739726</t>
-  </si>
-  <si>
-    <t>0.0821917808219178</t>
-  </si>
-  <si>
-    <t>0.246575342465753</t>
-  </si>
-  <si>
-    <t>0.0547945205479452</t>
-  </si>
-  <si>
     <t>Susceptible people treated</t>
   </si>
   <si>
-    <t>Number of bites per year per mosquito</t>
-  </si>
-  <si>
     <t>num_bites</t>
   </si>
   <si>
@@ -1975,9 +1970,6 @@
     <t>Factor to modify bites in mosquito population</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>hum_bite_factor</t>
   </si>
   <si>
@@ -1993,9 +1985,6 @@
     <t>biting_rate</t>
   </si>
   <si>
-    <t>biting_rate * mpop * mos_bite_factor</t>
-  </si>
-  <si>
     <t>Number of mosquito bites distributed among human populations</t>
   </si>
   <si>
@@ -2023,9 +2012,6 @@
     <t>Mosquito births</t>
   </si>
   <si>
-    <t>mbirth_rate * mos_birth_factor</t>
-  </si>
-  <si>
     <t>mlife_expectancy</t>
   </si>
   <si>
@@ -2042,12 +2028,78 @@
   </si>
   <si>
     <t>mlife_expectancy * mos_death_factor</t>
+  </si>
+  <si>
+    <t>const</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>season</t>
+  </si>
+  <si>
+    <t>Seasonality</t>
+  </si>
+  <si>
+    <t>mbirth_seasonality</t>
+  </si>
+  <si>
+    <t>mbirth_season_max</t>
+  </si>
+  <si>
+    <t>mbirth_season_min</t>
+  </si>
+  <si>
+    <t>Maximal mosquito birth rate</t>
+  </si>
+  <si>
+    <t>Minimal mosquito birth rate</t>
+  </si>
+  <si>
+    <t>Seasonal influence on the mosquito birth rates</t>
+  </si>
+  <si>
+    <t>mbirth_rate * mos_birth_factor * mbirth_seasonality</t>
+  </si>
+  <si>
+    <t>(mbirth_season_max - mbirth_season_min) / 2 * sin(t * 2 * pi) + (mbirth_season_max + mbirth_season_min) / 2</t>
+  </si>
+  <si>
+    <t>biting_rate * mos_bite_factor * mpop / tot_pop</t>
+  </si>
+  <si>
+    <t>Number of bites per time step per mosquito per human</t>
+  </si>
+  <si>
+    <t>dalys</t>
+  </si>
+  <si>
+    <t>DALYs</t>
+  </si>
+  <si>
+    <t>daly</t>
+  </si>
+  <si>
+    <t>daly_weight</t>
+  </si>
+  <si>
+    <t>Disability weight</t>
+  </si>
+  <si>
+    <t>avg_years_lost</t>
+  </si>
+  <si>
+    <t>Average years lost due to premature death</t>
+  </si>
+  <si>
+    <t>all_inf * daly_weight + avg_years_lost * mal_death:flow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -2209,19 +2261,19 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2625,7 +2677,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2713,16 +2765,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="45" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2757,6 +2800,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="45" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="46">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2786,8 +2847,8 @@
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Comma 2" xfId="43"/>
-    <cellStyle name="Currency 2" xfId="44"/>
+    <cellStyle name="Comma 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Currency 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -2797,9 +2858,9 @@
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Neutral 2" xfId="42"/>
+    <cellStyle name="Neutral 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="45"/>
+    <cellStyle name="Normal 2" xfId="45" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -2862,7 +2923,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2895,9 +2956,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2930,6 +3008,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3105,7 +3200,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3136,11 +3231,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3189,13 +3284,29 @@
         <v>82</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>222</v>
+      </c>
+    </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
@@ -3224,11 +3335,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A15"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3385,7 +3496,7 @@
       <c r="A6" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="40" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="32" t="s">
@@ -3434,28 +3545,28 @@
       </c>
     </row>
     <row r="8" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47" t="s">
+      <c r="C8" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3721,10 +3832,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F18" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"n,y"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G18" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"y,n"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3735,11 +3846,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AB36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3857,7 +3968,7 @@
       <c r="K2" s="23"/>
       <c r="L2" s="23"/>
       <c r="M2" s="23"/>
-      <c r="N2" s="44"/>
+      <c r="N2" s="41"/>
       <c r="O2" s="21"/>
       <c r="P2" s="23"/>
       <c r="Q2" s="23"/>
@@ -3882,7 +3993,7 @@
       <c r="K3" s="23"/>
       <c r="L3" s="23"/>
       <c r="M3" s="23"/>
-      <c r="N3" s="44"/>
+      <c r="N3" s="41"/>
       <c r="O3" s="21"/>
       <c r="P3" s="23"/>
       <c r="Q3" s="23"/>
@@ -3907,7 +4018,7 @@
       <c r="K4" s="23"/>
       <c r="L4" s="23"/>
       <c r="M4" s="23"/>
-      <c r="N4" s="44"/>
+      <c r="N4" s="41"/>
       <c r="O4" s="21"/>
       <c r="P4" s="23"/>
       <c r="Q4" s="23"/>
@@ -3928,7 +4039,7 @@
       <c r="K5" s="23"/>
       <c r="L5" s="23"/>
       <c r="M5" s="23"/>
-      <c r="N5" s="44"/>
+      <c r="N5" s="41"/>
       <c r="O5" s="21"/>
       <c r="P5" s="23"/>
       <c r="Q5" s="23"/>
@@ -4142,7 +4253,7 @@
         <f>Compartments!$A15</f>
         <v>htx</v>
       </c>
-      <c r="B15" s="45"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="22"/>
       <c r="D15" s="20"/>
       <c r="E15" s="22"/>
@@ -4386,25 +4497,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomRight" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="70.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="101.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
@@ -4435,7 +4546,7 @@
         <v>14</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="I1" s="35" t="s">
         <v>6</v>
@@ -4652,10 +4763,10 @@
     </row>
     <row r="8" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>158</v>
+        <v>234</v>
       </c>
       <c r="C8" s="36" t="s">
         <v>22</v>
@@ -4682,10 +4793,10 @@
     </row>
     <row r="9" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C9" s="36" t="s">
         <v>87</v>
@@ -4696,12 +4807,8 @@
       <c r="E9" s="36">
         <v>0</v>
       </c>
-      <c r="F9" s="36">
-        <v>1</v>
-      </c>
-      <c r="G9" s="54" t="s">
-        <v>207</v>
-      </c>
+      <c r="F9" s="36"/>
+      <c r="G9" s="51"/>
       <c r="H9" s="36" t="s">
         <v>8</v>
       </c>
@@ -4711,15 +4818,17 @@
       <c r="J9" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="36"/>
+      <c r="K9" s="36" t="s">
+        <v>221</v>
+      </c>
       <c r="L9" s="36"/>
     </row>
     <row r="10" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C10" s="36" t="s">
         <v>87</v>
@@ -4730,12 +4839,8 @@
       <c r="E10" s="36">
         <v>0</v>
       </c>
-      <c r="F10" s="36">
-        <v>1</v>
-      </c>
-      <c r="G10" s="54" t="s">
-        <v>207</v>
-      </c>
+      <c r="F10" s="36"/>
+      <c r="G10" s="51"/>
       <c r="H10" s="36" t="s">
         <v>8</v>
       </c>
@@ -4745,15 +4850,17 @@
       <c r="J10" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="36"/>
+      <c r="K10" s="36" t="s">
+        <v>221</v>
+      </c>
       <c r="L10" s="36"/>
     </row>
     <row r="11" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C11" s="36" t="s">
         <v>87</v>
@@ -4764,12 +4871,8 @@
       <c r="E11" s="36">
         <v>0</v>
       </c>
-      <c r="F11" s="36">
-        <v>1</v>
-      </c>
-      <c r="G11" s="54" t="s">
-        <v>207</v>
-      </c>
+      <c r="F11" s="36"/>
+      <c r="G11" s="51"/>
       <c r="H11" s="36" t="s">
         <v>8</v>
       </c>
@@ -4779,12 +4882,14 @@
       <c r="J11" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="K11" s="36"/>
+      <c r="K11" s="36" t="s">
+        <v>221</v>
+      </c>
       <c r="L11" s="36"/>
     </row>
     <row r="12" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="B12" s="36" t="s">
         <v>160</v>
@@ -4798,7 +4903,7 @@
       </c>
       <c r="F12" s="36"/>
       <c r="G12" s="28" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>7</v>
@@ -4814,10 +4919,10 @@
     </row>
     <row r="13" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>214</v>
+        <v>154</v>
       </c>
       <c r="C13" s="36" t="s">
         <v>22</v>
@@ -4828,7 +4933,7 @@
       </c>
       <c r="F13" s="36"/>
       <c r="G13" s="28" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>7</v>
@@ -4844,10 +4949,10 @@
     </row>
     <row r="14" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="C14" s="36" t="s">
         <v>22</v>
@@ -4858,7 +4963,7 @@
       </c>
       <c r="F14" s="36"/>
       <c r="G14" s="28" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>7</v>
@@ -4874,10 +4979,10 @@
     </row>
     <row r="15" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C15" s="36" t="s">
         <v>22</v>
@@ -4888,7 +4993,7 @@
       </c>
       <c r="F15" s="36"/>
       <c r="G15" s="28" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>7</v>
@@ -4904,10 +5009,10 @@
     </row>
     <row r="16" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C16" s="36" t="s">
         <v>87</v>
@@ -4920,7 +5025,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>7</v>
@@ -4951,7 +5056,7 @@
       <c r="F17" s="36"/>
       <c r="G17" s="36"/>
       <c r="H17" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>7</v>
@@ -4981,7 +5086,7 @@
       <c r="F18" s="36"/>
       <c r="G18" s="36"/>
       <c r="H18" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>7</v>
@@ -4996,10 +5101,10 @@
     </row>
     <row r="19" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="38" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C19" s="36" t="s">
         <v>22</v>
@@ -5010,7 +5115,7 @@
       </c>
       <c r="F19" s="36"/>
       <c r="G19" s="36" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>7</v>
@@ -5026,10 +5131,10 @@
     </row>
     <row r="20" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="38" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C20" s="36" t="s">
         <v>22</v>
@@ -5040,7 +5145,7 @@
       </c>
       <c r="F20" s="36"/>
       <c r="G20" s="36" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>7</v>
@@ -5056,10 +5161,10 @@
     </row>
     <row r="21" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="38" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C21" s="36" t="s">
         <v>22</v>
@@ -5070,7 +5175,7 @@
       </c>
       <c r="F21" s="36"/>
       <c r="G21" s="36" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>7</v>
@@ -5094,7 +5199,7 @@
       <c r="C22" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="52">
+      <c r="D22" s="49">
         <v>0.5</v>
       </c>
       <c r="E22" s="36">
@@ -5119,7 +5224,7 @@
       <c r="L22" s="36"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="39" t="s">
         <v>109</v>
       </c>
       <c r="B23" s="37" t="s">
@@ -5151,7 +5256,7 @@
       <c r="L23" s="36"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="39" t="str">
+      <c r="A24" s="52" t="str">
         <f>Transitions!C2</f>
         <v>mexposed</v>
       </c>
@@ -5168,7 +5273,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>7</v>
@@ -5182,7 +5287,7 @@
       <c r="L24" s="36"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="str">
+      <c r="A25" s="53" t="str">
         <f>Transitions!D3</f>
         <v>minfected</v>
       </c>
@@ -5215,10 +5320,10 @@
     </row>
     <row r="26" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="38" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C26" s="36" t="s">
         <v>87</v>
@@ -5229,12 +5334,8 @@
       <c r="E26" s="36">
         <v>0</v>
       </c>
-      <c r="F26" s="36">
-        <v>1</v>
-      </c>
-      <c r="G26" s="54" t="s">
-        <v>207</v>
-      </c>
+      <c r="F26" s="36"/>
+      <c r="G26" s="51"/>
       <c r="H26" s="36" t="s">
         <v>8</v>
       </c>
@@ -5244,15 +5345,17 @@
       <c r="J26" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="K26" s="36"/>
+      <c r="K26" s="36" t="s">
+        <v>221</v>
+      </c>
       <c r="L26" s="36"/>
     </row>
     <row r="27" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="38" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C27" s="36" t="s">
         <v>22</v>
@@ -5262,7 +5365,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="36"/>
-      <c r="G27" s="54"/>
+      <c r="G27" s="51"/>
       <c r="H27" s="36" t="s">
         <v>7</v>
       </c>
@@ -5278,249 +5381,242 @@
       <c r="L27" s="36"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="str">
+      <c r="A28" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0</v>
+      </c>
+      <c r="H28" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36">
+        <v>0</v>
+      </c>
+      <c r="F30" s="36"/>
+      <c r="G30" s="51" t="s">
+        <v>232</v>
+      </c>
+      <c r="H30" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="53" t="str">
         <f>Transitions!B6</f>
         <v>mnew</v>
       </c>
-      <c r="B28" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="C28" s="51" t="s">
+      <c r="B31" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="C31" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36">
+      <c r="D31" s="36"/>
+      <c r="E31" s="36">
         <v>0</v>
       </c>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L28" s="36"/>
-    </row>
-    <row r="29" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="B29" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="C29" s="36" t="s">
+      <c r="F31" s="36"/>
+      <c r="G31" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L31" s="36"/>
+    </row>
+    <row r="32" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="C32" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="36">
+      <c r="D32" s="36">
         <v>1</v>
       </c>
-      <c r="E29" s="36">
+      <c r="E32" s="36">
         <v>0</v>
       </c>
-      <c r="F29" s="36">
-        <v>1</v>
-      </c>
-      <c r="G29" s="54" t="s">
-        <v>207</v>
-      </c>
-      <c r="H29" s="36" t="s">
+      <c r="F32" s="36"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="J29" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-    </row>
-    <row r="30" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="38" t="s">
-        <v>224</v>
-      </c>
-      <c r="B30" s="36" t="s">
+      <c r="I32" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="L32" s="36"/>
+    </row>
+    <row r="33" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="B33" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C33" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="36">
+      <c r="D33" s="36">
         <f>35/365</f>
         <v>9.5890410958904104E-2</v>
       </c>
-      <c r="E30" s="36">
+      <c r="E33" s="36">
         <v>0</v>
       </c>
-      <c r="F30" s="36"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="I30" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="J30" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="K30" s="36" t="s">
+      <c r="F33" s="36"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="K33" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="L30" s="36"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="40" t="str">
+      <c r="L33" s="36"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="54" t="str">
         <f>Transitions!E4</f>
         <v>mdeath</v>
       </c>
-      <c r="B31" s="37" t="s">
-        <v>225</v>
-      </c>
-      <c r="C31" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37">
+      <c r="B34" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37">
         <v>0</v>
       </c>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="H31" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="I31" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="J31" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="K31" s="37"/>
-      <c r="L31" s="36"/>
-    </row>
-    <row r="32" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="str">
+      <c r="F34" s="37"/>
+      <c r="G34" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="H34" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="J34" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="K34" s="37"/>
+      <c r="L34" s="36"/>
+    </row>
+    <row r="35" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="52" t="str">
         <f>Transitions!I7</f>
         <v>exposed</v>
       </c>
-      <c r="B32" s="38" t="s">
+      <c r="B35" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C35" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="38">
-        <v>0</v>
-      </c>
-      <c r="F32" s="5">
-        <v>1</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K32" s="5"/>
-      <c r="L32" s="36"/>
-    </row>
-    <row r="33" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="39" t="str">
-        <f>Transitions!H7</f>
-        <v>symp</v>
-      </c>
-      <c r="B33" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="50">
-        <f>1/1000</f>
-        <v>1E-3</v>
-      </c>
-      <c r="E33" s="38">
-        <v>0</v>
-      </c>
-      <c r="F33" s="5">
-        <v>1</v>
-      </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="L33" s="5"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="B34" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" s="50">
-        <f>7/365</f>
-        <v>1.9178082191780823E-2</v>
-      </c>
-      <c r="E34" s="38">
-        <v>0</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K34" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="B35" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="38">
         <v>0</v>
       </c>
-      <c r="F35" s="5"/>
+      <c r="F35" s="5">
+        <v>1</v>
+      </c>
       <c r="G35" s="5" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>7</v>
@@ -5532,26 +5628,30 @@
         <v>7</v>
       </c>
       <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
+      <c r="L35" s="36"/>
     </row>
     <row r="36" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="39" t="s">
-        <v>146</v>
+      <c r="A36" s="52" t="str">
+        <f>Transitions!H7</f>
+        <v>symp</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="D36" s="47">
+        <f>1/1000</f>
+        <v>1E-3</v>
+      </c>
       <c r="E36" s="38">
         <v>0</v>
       </c>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5" t="s">
-        <v>201</v>
-      </c>
+      <c r="F36" s="5">
+        <v>1</v>
+      </c>
+      <c r="G36" s="5"/>
       <c r="H36" s="5" t="s">
         <v>7</v>
       </c>
@@ -5561,311 +5661,498 @@
       <c r="J36" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K36" s="5"/>
+      <c r="K36" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="L36" s="5"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="39" t="str">
+      <c r="A37" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="47">
+        <f>7/365</f>
+        <v>1.9178082191780823E-2</v>
+      </c>
+      <c r="E37" s="38">
+        <v>0</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="B38" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="38">
+        <v>0</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+    </row>
+    <row r="39" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="B39" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="38">
+        <v>0</v>
+      </c>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="52" t="str">
         <f>Transitions!J9</f>
         <v>infected</v>
       </c>
-      <c r="B37" s="38" t="s">
+      <c r="B40" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D40" s="5">
         <f>14/365</f>
         <v>3.8356164383561646E-2</v>
       </c>
-      <c r="E37" s="38">
+      <c r="E40" s="38">
         <v>0</v>
       </c>
-      <c r="G37" s="53" t="s">
-        <v>152</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="39" t="str">
+      <c r="G40" s="50"/>
+      <c r="H40" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="52" t="str">
         <f>Transitions!K10</f>
         <v>dev_imm</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B41" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C41" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D41" s="5">
         <f>10/365</f>
         <v>2.7397260273972601E-2</v>
       </c>
-      <c r="E38" s="38">
+      <c r="E41" s="38">
         <v>0</v>
       </c>
-      <c r="G38" s="53" t="s">
-        <v>153</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="39" t="str">
+      <c r="G41" s="50"/>
+      <c r="H41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="52" t="str">
         <f>Transitions!M11</f>
         <v>wan_imm</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B42" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C42" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D42" s="5">
         <f>30/365</f>
         <v>8.2191780821917804E-2</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E42" s="5">
         <f>5/365</f>
         <v>1.3698630136986301E-2</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F42" s="5">
         <f>60/365</f>
         <v>0.16438356164383561</v>
       </c>
-      <c r="G39" s="53" t="s">
-        <v>154</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I39" s="5" t="s">
+      <c r="G42" s="50"/>
+      <c r="H42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J39" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="39" t="str">
+      <c r="J42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="52" t="str">
         <f>Transitions!G13</f>
         <v>los_imm</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B43" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C43" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D43" s="5">
         <f>90/365</f>
         <v>0.24657534246575341</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E43" s="5">
         <f>60/365</f>
         <v>0.16438356164383561</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F43" s="5">
         <v>5</v>
       </c>
-      <c r="G40" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I40" s="5" t="s">
+      <c r="G43" s="50"/>
+      <c r="H43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J40" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="41" t="str">
+      <c r="J43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="L43" s="5"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="55" t="str">
         <f>Transitions!G15</f>
         <v>recover</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B44" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C44" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D44" s="5">
         <f>20/365</f>
         <v>5.4794520547945202E-2</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E44" s="5">
         <v>0</v>
       </c>
-      <c r="G41" s="53" t="s">
-        <v>156</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="42" t="str">
+      <c r="G44" s="50"/>
+      <c r="H44" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="56" t="str">
         <f>Transitions!O8</f>
         <v>streated</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C42" s="5" t="s">
+      <c r="B45" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E45" s="5">
         <v>0</v>
       </c>
-      <c r="G42" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="42" t="str">
+      <c r="G45" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="56" t="str">
         <f>Transitions!O10</f>
         <v>treated</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B46" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C46" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5">
+      <c r="D46" s="5"/>
+      <c r="E46" s="5">
         <v>0</v>
       </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J43" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="39" t="str">
+      <c r="F46" s="5"/>
+      <c r="G46" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="52" t="str">
         <f>Transitions!P7</f>
         <v>death</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B47" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C47" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E47" s="5">
         <v>0</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F47" s="5">
         <v>1</v>
       </c>
-      <c r="H44" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J44" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K44" s="5" t="s">
+      <c r="H47" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K47" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="39" t="str">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="54" t="str">
         <f>Transitions!G18</f>
         <v>birth</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B48" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="C45" s="51" t="s">
+      <c r="C48" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="5">
+      <c r="D48" s="37"/>
+      <c r="E48" s="37">
         <v>0</v>
       </c>
-      <c r="H45" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J45" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K45" s="5" t="s">
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="I48" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="J48" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="K48" s="37" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5">
+        <v>0</v>
+      </c>
+      <c r="F49" s="5">
+        <v>1</v>
+      </c>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="L49" s="5"/>
+    </row>
+    <row r="50" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5">
+        <v>0</v>
+      </c>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="L50" s="5"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51" s="5">
+        <v>0</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:J45">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:J51" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"y,n"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C45">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C51" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>",number,probability,duration,proportion"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5963,26 +6250,26 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47">
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44">
         <v>0</v>
       </c>
       <c r="G4" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47" t="s">
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6082,7 +6369,7 @@
       <c r="G8" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="47" t="s">
+      <c r="H8" s="44" t="s">
         <v>81</v>
       </c>
       <c r="J8" s="9" t="s">
@@ -6109,7 +6396,7 @@
       <c r="G9" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="47" t="s">
+      <c r="H9" s="44" t="s">
         <v>103</v>
       </c>
       <c r="J9" s="9" t="s">
@@ -6147,20 +6434,20 @@
       <c r="G16" s="9"/>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="47"/>
+      <c r="C20" s="44"/>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="47"/>
+      <c r="C21" s="44"/>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="47"/>
+      <c r="C22" s="44"/>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="47"/>
+      <c r="C23" s="44"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G9 J2:J9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G9 J2:J9" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"y,n"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6170,7 +6457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6185,46 +6472,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="43" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
-        <v>161</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="C2" s="47">
+      <c r="A2" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="44">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>211</v>
-      </c>
-      <c r="C3" s="47">
+      <c r="A3" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="44">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
-        <v>173</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>170</v>
-      </c>
-      <c r="C4" s="47">
+      <c r="A4" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="44">
         <v>1</v>
       </c>
     </row>
@@ -6236,7 +6523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -6306,63 +6593,63 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="43" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>60</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>54</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -6370,13 +6657,13 @@
         <v>121</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -6384,13 +6671,13 @@
         <v>124</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -6398,69 +6685,83 @@
         <v>112</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>111</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C9" t="s">
         <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C10" t="s">
         <v>53</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>182</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>236</v>
+      </c>
+      <c r="B11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D11" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/tests/frameworks/framework_malaria.xlsx
+++ b/tests/frameworks/framework_malaria.xlsx
@@ -18,6 +18,13 @@
     <sheet name="Plots" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -875,7 +882,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D22" authorId="1">
+    <comment ref="C22" authorId="1">
       <text>
         <r>
           <rPr>
@@ -895,11 +902,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-arbitrary value</t>
+Is there a way to make this a rate?</t>
         </r>
       </text>
     </comment>
-    <comment ref="C31" authorId="1">
+    <comment ref="D27" authorId="1">
       <text>
         <r>
           <rPr>
@@ -919,11 +926,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Is there a way to make this a rate?</t>
+arbitrary value</t>
         </r>
       </text>
     </comment>
-    <comment ref="D36" authorId="1">
+    <comment ref="D28" authorId="1">
       <text>
         <r>
           <rPr>
@@ -947,31 +954,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D37" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Chris Kuschel:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-arbitrary value</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C48" authorId="1">
+    <comment ref="C41" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1352,7 +1335,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="227">
   <si>
     <t>Code Name</t>
   </si>
@@ -1447,72 +1430,15 @@
     <t>Infected (Mosquito)</t>
   </si>
   <si>
-    <t>Dead (Mosquito)</t>
-  </si>
-  <si>
-    <t>New born (Mosquito)</t>
-  </si>
-  <si>
-    <t>msus</t>
-  </si>
-  <si>
-    <t>mexp</t>
-  </si>
-  <si>
     <t>minf</t>
   </si>
   <si>
-    <t>mdead</t>
-  </si>
-  <si>
-    <t>mbirth</t>
-  </si>
-  <si>
-    <t>hsus</t>
-  </si>
-  <si>
-    <t>hexp</t>
-  </si>
-  <si>
-    <t>hinf</t>
-  </si>
-  <si>
-    <t>htx</t>
-  </si>
-  <si>
-    <t>hdead</t>
-  </si>
-  <si>
-    <t>hbirth</t>
-  </si>
-  <si>
-    <t>mdeath</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>birth</t>
-  </si>
-  <si>
     <t>all_inf</t>
   </si>
   <si>
     <t>All infected</t>
   </si>
   <si>
-    <t>all_imm</t>
-  </si>
-  <si>
-    <t>All immue</t>
-  </si>
-  <si>
-    <t>all_contagious</t>
-  </si>
-  <si>
-    <t>All contagious</t>
-  </si>
-  <si>
     <t>mprev</t>
   </si>
   <si>
@@ -1543,12 +1469,6 @@
     <t>Human population</t>
   </si>
   <si>
-    <t>msus, mexp, minf</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> minf</t>
-  </si>
-  <si>
     <t>All contagious people</t>
   </si>
   <si>
@@ -1558,9 +1478,6 @@
     <t>Life expectancy (mosquito)</t>
   </si>
   <si>
-    <t>Number of tests</t>
-  </si>
-  <si>
     <t>Time to develop immunity</t>
   </si>
   <si>
@@ -1570,27 +1487,12 @@
     <t>Treatment duration</t>
   </si>
   <si>
-    <t>Number of treatments</t>
-  </si>
-  <si>
     <t>Mortality rate</t>
   </si>
   <si>
     <t>Birth rate</t>
   </si>
   <si>
-    <t>eff_dx</t>
-  </si>
-  <si>
-    <t>eff_tx</t>
-  </si>
-  <si>
-    <t>Test efficacy</t>
-  </si>
-  <si>
-    <t>Treatment efficacy</t>
-  </si>
-  <si>
     <t>Incubation period (mosquito)</t>
   </si>
   <si>
@@ -1618,42 +1520,12 @@
     <t>proportion</t>
   </si>
   <si>
-    <t>himm</t>
-  </si>
-  <si>
-    <t>hwan</t>
-  </si>
-  <si>
     <t>Susceptible</t>
   </si>
   <si>
     <t>Exposed</t>
   </si>
   <si>
-    <t>In treatment</t>
-  </si>
-  <si>
-    <t>Dead</t>
-  </si>
-  <si>
-    <t>New born</t>
-  </si>
-  <si>
-    <t>treated</t>
-  </si>
-  <si>
-    <t>exposed</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>recover</t>
-  </si>
-  <si>
-    <t>all_imm, all_inf</t>
-  </si>
-  <si>
     <t>cas</t>
   </si>
   <si>
@@ -1669,90 +1541,27 @@
     <t>Time until immunity is lost</t>
   </si>
   <si>
-    <t>ndiag</t>
-  </si>
-  <si>
-    <t>ntreat</t>
-  </si>
-  <si>
-    <t>People treated</t>
-  </si>
-  <si>
     <t>Number of incidence</t>
   </si>
   <si>
-    <t>mal_death</t>
-  </si>
-  <si>
     <t>Probability of malaria death</t>
   </si>
   <si>
-    <t>hmdead</t>
-  </si>
-  <si>
     <t>Malaria deaths</t>
   </si>
   <si>
-    <t>dev_imm</t>
-  </si>
-  <si>
-    <t>wan_imm</t>
-  </si>
-  <si>
-    <t>los_imm</t>
-  </si>
-  <si>
-    <t>mexposed</t>
-  </si>
-  <si>
-    <t>minfected</t>
-  </si>
-  <si>
     <t>Force of infection (mosquito)</t>
   </si>
   <si>
     <t>Force of infection</t>
   </si>
   <si>
-    <t>mnew</t>
-  </si>
-  <si>
     <t>Infected</t>
   </si>
   <si>
-    <t>hsusmls</t>
-  </si>
-  <si>
     <t>Susceptible, malaria-like symptoms</t>
   </si>
   <si>
-    <t>Immune</t>
-  </si>
-  <si>
-    <t>himmmls</t>
-  </si>
-  <si>
-    <t>Immune, malaria-like symptoms</t>
-  </si>
-  <si>
-    <t>Waning immunity</t>
-  </si>
-  <si>
-    <t>hwanmls</t>
-  </si>
-  <si>
-    <t>Waning immunity, malaria-like symptoms</t>
-  </si>
-  <si>
-    <t>symp</t>
-  </si>
-  <si>
-    <t>himm, himmmls, hwan, hwanmls</t>
-  </si>
-  <si>
-    <t>hsus, hsusmls, hexp, all_contagious, htx</t>
-  </si>
-  <si>
     <t>trans_MH</t>
   </si>
   <si>
@@ -1765,54 +1574,9 @@
     <t>Cure malaria-like symptoms</t>
   </si>
   <si>
-    <t>nsymp</t>
-  </si>
-  <si>
-    <t>testable</t>
-  </si>
-  <si>
-    <t>Eligible for tests</t>
-  </si>
-  <si>
-    <t>hsusmls, hinf, himmmls, hwanmls</t>
-  </si>
-  <si>
-    <t>stested, nsymp</t>
-  </si>
-  <si>
-    <t>itested, nsymp</t>
-  </si>
-  <si>
-    <t>tx_wo_dx</t>
-  </si>
-  <si>
     <t>Treatment without test</t>
   </si>
   <si>
-    <t>stested</t>
-  </si>
-  <si>
-    <t>itested</t>
-  </si>
-  <si>
-    <t>Negative test result (susceptible)</t>
-  </si>
-  <si>
-    <t>Negative test result (immune)</t>
-  </si>
-  <si>
-    <t>imm_diag_prob</t>
-  </si>
-  <si>
-    <t>Test rate of immune people</t>
-  </si>
-  <si>
-    <t>streated</t>
-  </si>
-  <si>
-    <t>Susceptible people treated</t>
-  </si>
-  <si>
     <t>num_bites</t>
   </si>
   <si>
@@ -1852,9 +1616,6 @@
     <t>TGT_POP_SUM(mprev, w_dist)</t>
   </si>
   <si>
-    <t>SRC_POP_SUM(all_contagious, w_dist)</t>
-  </si>
-  <si>
     <t>w_sum</t>
   </si>
   <si>
@@ -1888,69 +1649,18 @@
     <t>Prevalence in humans</t>
   </si>
   <si>
-    <t>Incidence</t>
-  </si>
-  <si>
-    <t>Treatments</t>
-  </si>
-  <si>
     <t>Mosquito population size</t>
   </si>
   <si>
     <t>Prevalence in mosquitoes</t>
   </si>
   <si>
-    <t>exposed:flow</t>
-  </si>
-  <si>
-    <t>treated:flow</t>
-  </si>
-  <si>
     <t>tot_bites</t>
   </si>
   <si>
-    <t>ntat</t>
-  </si>
-  <si>
-    <t>Number of tests combined with treatments</t>
-  </si>
-  <si>
-    <t>min(ndiag, (1 - tx_wo_dx) * ntreat)</t>
-  </si>
-  <si>
-    <t>ntnt</t>
-  </si>
-  <si>
-    <t>Number of treatments without tests</t>
-  </si>
-  <si>
-    <t>ntreat - ntat</t>
-  </si>
-  <si>
-    <t>ndx</t>
-  </si>
-  <si>
-    <t>Number of tests not combined with treatments</t>
-  </si>
-  <si>
-    <t>ndiag - ntat</t>
-  </si>
-  <si>
-    <t>ndx * eff_dx</t>
-  </si>
-  <si>
-    <t>ndx * (1 - eff_dx) * imm_diag_prob</t>
-  </si>
-  <si>
     <t>tot_bites * trans_HM * tot_inf / tot_pop</t>
   </si>
   <si>
-    <t>eff_tx * ((1 - eff_dx) * ntat +  ntnt)</t>
-  </si>
-  <si>
-    <t>eff_tx * (eff_dx * ntat + ntnt)</t>
-  </si>
-  <si>
     <t>mos_bite_factor</t>
   </si>
   <si>
@@ -2080,7 +1790,232 @@
     <t>Average years lost due to premature death</t>
   </si>
   <si>
-    <t>cumsum(all_inf * daly_weight + avg_years_lost * mal_death)</t>
+    <t>mS</t>
+  </si>
+  <si>
+    <t>mE</t>
+  </si>
+  <si>
+    <t>mI</t>
+  </si>
+  <si>
+    <t>mdd</t>
+  </si>
+  <si>
+    <t>dbb</t>
+  </si>
+  <si>
+    <t>Births (Mosquito)</t>
+  </si>
+  <si>
+    <t>Deaths (Mosquito)</t>
+  </si>
+  <si>
+    <t>hS</t>
+  </si>
+  <si>
+    <t>hSs</t>
+  </si>
+  <si>
+    <t>hE</t>
+  </si>
+  <si>
+    <t>hEs</t>
+  </si>
+  <si>
+    <t>hP</t>
+  </si>
+  <si>
+    <t>hPt</t>
+  </si>
+  <si>
+    <t>hPA</t>
+  </si>
+  <si>
+    <t>hPAs</t>
+  </si>
+  <si>
+    <t>hfPA</t>
+  </si>
+  <si>
+    <t>hfPAs</t>
+  </si>
+  <si>
+    <t>hA</t>
+  </si>
+  <si>
+    <t>hAs</t>
+  </si>
+  <si>
+    <t>hAt</t>
+  </si>
+  <si>
+    <t>Parasites and antibodies</t>
+  </si>
+  <si>
+    <t>Few parasites and antibodies</t>
+  </si>
+  <si>
+    <t>Antibodies</t>
+  </si>
+  <si>
+    <t>On treatment (antibodies)</t>
+  </si>
+  <si>
+    <t>Exposed, malaria-like symptoms</t>
+  </si>
+  <si>
+    <t>On treatment (no antibodies)</t>
+  </si>
+  <si>
+    <t>Parasites and antibodies, malaria-like symptoms</t>
+  </si>
+  <si>
+    <t>Few parasites and antibodies, malaria-like symptoms</t>
+  </si>
+  <si>
+    <t>Antibodies, malaria-like symptoms</t>
+  </si>
+  <si>
+    <t>hdd</t>
+  </si>
+  <si>
+    <t>hddd</t>
+  </si>
+  <si>
+    <t>hbb</t>
+  </si>
+  <si>
+    <t>Deaths</t>
+  </si>
+  <si>
+    <t>Births</t>
+  </si>
+  <si>
+    <t>mex</t>
+  </si>
+  <si>
+    <t>mborn</t>
+  </si>
+  <si>
+    <t>mdie</t>
+  </si>
+  <si>
+    <t>hdie</t>
+  </si>
+  <si>
+    <t>hddie</t>
+  </si>
+  <si>
+    <t>mls</t>
+  </si>
+  <si>
+    <t>ex</t>
+  </si>
+  <si>
+    <t>inc</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>rec</t>
+  </si>
+  <si>
+    <t>rp</t>
+  </si>
+  <si>
+    <t>Nmls, rdtn</t>
+  </si>
+  <si>
+    <t>frdtp, Ndx</t>
+  </si>
+  <si>
+    <t>rdtp, Ndx</t>
+  </si>
+  <si>
+    <t>Nmls, frdtn</t>
+  </si>
+  <si>
+    <t>cp</t>
+  </si>
+  <si>
+    <t>ca</t>
+  </si>
+  <si>
+    <t>Nmls, frdtp</t>
+  </si>
+  <si>
+    <t>rdtn, Ndx</t>
+  </si>
+  <si>
+    <t>hborn</t>
+  </si>
+  <si>
+    <t>Nmls</t>
+  </si>
+  <si>
+    <t>Clear antibodies</t>
+  </si>
+  <si>
+    <t>rdtp</t>
+  </si>
+  <si>
+    <t>rdtn</t>
+  </si>
+  <si>
+    <t>frdtp</t>
+  </si>
+  <si>
+    <t>frdtn</t>
+  </si>
+  <si>
+    <t>Ndx</t>
+  </si>
+  <si>
+    <t>Rapid diagnosis test (positive) followed by treatment</t>
+  </si>
+  <si>
+    <t>Rapid diagnosis test (negative)</t>
+  </si>
+  <si>
+    <t>Rapid diagnosis test (false positive) followed by treatment</t>
+  </si>
+  <si>
+    <t>Rapid diagnosis test (false negative)</t>
+  </si>
+  <si>
+    <t>all_par</t>
+  </si>
+  <si>
+    <t>All with parasites</t>
+  </si>
+  <si>
+    <t>hP, hPA, hfPA, hPAs, hfPAs</t>
+  </si>
+  <si>
+    <t>all_ab</t>
+  </si>
+  <si>
+    <t>All with antibodies</t>
+  </si>
+  <si>
+    <t>mS, mE, mI</t>
+  </si>
+  <si>
+    <t>hS, hSs, hE, hEs, hP, hPt, all_ab</t>
+  </si>
+  <si>
+    <t>hPA, hPAs, hfPA, hfPAs, hA, hAs, hAt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mI</t>
+  </si>
+  <si>
+    <t>SRC_POP_SUM(all_par, w_dist)</t>
+  </si>
+  <si>
+    <t>all_inf * daly_weight + avg_years_lost * hddie:flow</t>
   </si>
 </sst>
 </file>
@@ -2091,7 +2026,7 @@
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2255,12 +2190,6 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2664,7 +2593,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2728,9 +2657,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2752,14 +2678,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2776,9 +2697,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="42" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -2799,11 +2717,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="45" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="46">
@@ -3207,58 +3125,58 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
-        <v>221</v>
-      </c>
-      <c r="B6" s="44" t="s">
-        <v>222</v>
+      <c r="A6" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>223</v>
+        <v>132</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>224</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>237</v>
+        <v>146</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>236</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3289,10 +3207,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3335,7 +3253,7 @@
         <v>20</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>21</v>
@@ -3343,7 +3261,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>28</v>
@@ -3369,7 +3287,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>29</v>
@@ -3395,7 +3313,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>35</v>
+        <v>153</v>
       </c>
       <c r="B4" s="30" t="s">
         <v>30</v>
@@ -3421,10 +3339,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="C5" s="29" t="s">
         <v>7</v>
@@ -3446,37 +3364,37 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="32" t="s">
+      <c r="A6" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32" t="s">
+      <c r="D6" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>38</v>
+        <v>158</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>7</v>
@@ -3498,37 +3416,37 @@
       </c>
     </row>
     <row r="8" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="B8" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44" t="s">
+      <c r="A8" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>39</v>
+        <v>160</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="C9" s="29" t="s">
         <v>7</v>
@@ -3551,10 +3469,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>121</v>
+        <v>161</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>175</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>7</v>
@@ -3577,10 +3495,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="C11" s="29" t="s">
         <v>7</v>
@@ -3603,10 +3521,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>126</v>
+        <v>176</v>
       </c>
       <c r="C12" s="29" t="s">
         <v>7</v>
@@ -3629,10 +3547,10 @@
     </row>
     <row r="13" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>89</v>
+        <v>164</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>127</v>
+        <v>171</v>
       </c>
       <c r="C13" s="29" t="s">
         <v>7</v>
@@ -3655,10 +3573,10 @@
     </row>
     <row r="14" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>7</v>
@@ -3681,10 +3599,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>92</v>
+        <v>172</v>
       </c>
       <c r="C15" s="29" t="s">
         <v>7</v>
@@ -3707,88 +3625,192 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="29"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>43</v>
+        <v>169</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="29"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="29" t="s">
+      <c r="E20" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F22">
       <formula1>"n,y"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G22">
       <formula1>"y,n"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3803,115 +3825,133 @@
   <dimension ref="A1:AB36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" style="28" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" style="28" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" style="28" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" style="28" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" style="28" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="26"/>
-      <c r="B1" s="25" t="str">
+      <c r="B1" s="52" t="str">
         <f>Compartments!$A2</f>
-        <v>msus</v>
-      </c>
-      <c r="C1" s="25" t="str">
+        <v>mS</v>
+      </c>
+      <c r="C1" s="52" t="str">
         <f>Compartments!$A3</f>
-        <v>mexp</v>
-      </c>
-      <c r="D1" s="25" t="str">
+        <v>mE</v>
+      </c>
+      <c r="D1" s="52" t="str">
         <f>Compartments!$A4</f>
-        <v>minf</v>
-      </c>
-      <c r="E1" s="25" t="str">
+        <v>mI</v>
+      </c>
+      <c r="E1" s="52" t="str">
         <f>Compartments!$A5</f>
-        <v>mdead</v>
-      </c>
-      <c r="F1" s="25" t="str">
+        <v>mdd</v>
+      </c>
+      <c r="F1" s="52" t="str">
         <f>Compartments!$A6</f>
-        <v>mbirth</v>
-      </c>
-      <c r="G1" s="25" t="str">
+        <v>dbb</v>
+      </c>
+      <c r="G1" s="52" t="str">
         <f>Compartments!$A7</f>
-        <v>hsus</v>
-      </c>
-      <c r="H1" s="25" t="str">
+        <v>hS</v>
+      </c>
+      <c r="H1" s="52" t="str">
         <f>Compartments!$A8</f>
-        <v>hsusmls</v>
-      </c>
-      <c r="I1" s="25" t="str">
+        <v>hSs</v>
+      </c>
+      <c r="I1" s="52" t="str">
         <f>Compartments!$A9</f>
-        <v>hexp</v>
-      </c>
-      <c r="J1" s="25" t="str">
+        <v>hE</v>
+      </c>
+      <c r="J1" s="52" t="str">
         <f>Compartments!$A10</f>
-        <v>hinf</v>
-      </c>
-      <c r="K1" s="25" t="str">
+        <v>hEs</v>
+      </c>
+      <c r="K1" s="52" t="str">
         <f>Compartments!$A11</f>
-        <v>himm</v>
-      </c>
-      <c r="L1" s="25" t="str">
+        <v>hP</v>
+      </c>
+      <c r="L1" s="52" t="str">
         <f>Compartments!$A12</f>
-        <v>himmmls</v>
-      </c>
-      <c r="M1" s="25" t="str">
+        <v>hPt</v>
+      </c>
+      <c r="M1" s="52" t="str">
         <f>Compartments!$A13</f>
-        <v>hwan</v>
-      </c>
-      <c r="N1" s="25" t="str">
+        <v>hPA</v>
+      </c>
+      <c r="N1" s="52" t="str">
         <f>Compartments!$A14</f>
-        <v>hwanmls</v>
-      </c>
-      <c r="O1" s="25" t="str">
+        <v>hPAs</v>
+      </c>
+      <c r="O1" s="52" t="str">
         <f>Compartments!$A15</f>
-        <v>htx</v>
-      </c>
-      <c r="P1" s="25" t="str">
+        <v>hfPA</v>
+      </c>
+      <c r="P1" s="52" t="str">
         <f>Compartments!$A16</f>
-        <v>hdead</v>
-      </c>
-      <c r="Q1" s="25" t="str">
+        <v>hfPAs</v>
+      </c>
+      <c r="Q1" s="52" t="str">
         <f>Compartments!$A17</f>
-        <v>hmdead</v>
-      </c>
-      <c r="R1" s="25" t="str">
+        <v>hA</v>
+      </c>
+      <c r="R1" s="52" t="str">
         <f>Compartments!$A18</f>
-        <v>hbirth</v>
-      </c>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+        <v>hAs</v>
+      </c>
+      <c r="S1" s="52" t="str">
+        <f>Compartments!$A19</f>
+        <v>hAt</v>
+      </c>
+      <c r="T1" s="52" t="str">
+        <f>Compartments!$A20</f>
+        <v>hdd</v>
+      </c>
+      <c r="U1" s="52" t="str">
+        <f>Compartments!$A21</f>
+        <v>hddd</v>
+      </c>
+      <c r="V1" s="52" t="str">
+        <f>Compartments!$A22</f>
+        <v>hbb</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="str">
         <f>Compartments!$A2</f>
-        <v>msus</v>
+        <v>mS</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>185</v>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>187</v>
       </c>
       <c r="F2" s="24"/>
       <c r="G2" s="23"/>
@@ -3921,22 +3961,26 @@
       <c r="K2" s="23"/>
       <c r="L2" s="23"/>
       <c r="M2" s="23"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="21"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
       <c r="P2" s="23"/>
       <c r="Q2" s="23"/>
       <c r="R2" s="23"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S2" s="21"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="21"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="str">
         <f>Compartments!$A3</f>
-        <v>mexp</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>117</v>
+        <v>mE</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>187</v>
       </c>
       <c r="F3" s="24"/>
       <c r="G3" s="23"/>
@@ -3946,22 +3990,26 @@
       <c r="K3" s="23"/>
       <c r="L3" s="23"/>
       <c r="M3" s="23"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="21"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
       <c r="P3" s="23"/>
       <c r="Q3" s="23"/>
       <c r="R3" s="23"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S3" s="21"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="21"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="str">
         <f>Compartments!$A4</f>
-        <v>minf</v>
+        <v>mI</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="27"/>
       <c r="D4" s="26"/>
       <c r="E4" s="27" t="s">
-        <v>44</v>
+        <v>187</v>
       </c>
       <c r="F4" s="26"/>
       <c r="G4" s="23"/>
@@ -3971,16 +4019,20 @@
       <c r="K4" s="23"/>
       <c r="L4" s="23"/>
       <c r="M4" s="23"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="21"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
       <c r="P4" s="23"/>
       <c r="Q4" s="23"/>
       <c r="R4" s="23"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S4" s="21"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="21"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="str">
         <f>Compartments!$A5</f>
-        <v>mdead</v>
+        <v>mdd</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="23"/>
@@ -3992,22 +4044,26 @@
       <c r="K5" s="23"/>
       <c r="L5" s="23"/>
       <c r="M5" s="23"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="21"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
       <c r="P5" s="23"/>
       <c r="Q5" s="23"/>
       <c r="R5" s="23"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="str">
+      <c r="S5" s="21"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="21"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="52" t="str">
         <f>Compartments!$A6</f>
-        <v>mbirth</v>
+        <v>dbb</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>120</v>
+        <v>186</v>
       </c>
       <c r="C6" s="27"/>
-      <c r="D6" s="34"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="22"/>
       <c r="F6" s="20"/>
       <c r="G6" s="22"/>
@@ -4018,285 +4074,458 @@
       <c r="L6" s="22"/>
       <c r="M6" s="22"/>
       <c r="N6" s="22"/>
-      <c r="O6" s="20"/>
+      <c r="O6" s="22"/>
       <c r="P6" s="22"/>
       <c r="Q6" s="22"/>
       <c r="R6" s="22"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S6" s="20"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="20"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="str">
         <f>Compartments!$A7</f>
-        <v>hsus</v>
+        <v>hS</v>
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
       <c r="D7" s="21"/>
       <c r="E7" s="23"/>
       <c r="F7" s="21"/>
-      <c r="H7" t="s">
-        <v>130</v>
-      </c>
-      <c r="I7" t="s">
-        <v>96</v>
-      </c>
-      <c r="N7" s="7"/>
-      <c r="O7" s="24"/>
-      <c r="P7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G7" s="28"/>
+      <c r="H7" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="V7" s="24"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="str">
         <f>Compartments!$A8</f>
-        <v>hsusmls</v>
+        <v>hSs</v>
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
       <c r="D8" s="21"/>
       <c r="E8" s="23"/>
       <c r="F8" s="21"/>
-      <c r="G8" t="s">
-        <v>141</v>
-      </c>
-      <c r="I8" t="s">
-        <v>96</v>
-      </c>
-      <c r="N8" s="7"/>
-      <c r="O8" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="P8" s="28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G8" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="M8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="V8" s="24"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="str">
         <f>Compartments!$A9</f>
-        <v>hexp</v>
+        <v>hE</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
       <c r="D9" s="21"/>
       <c r="E9" s="23"/>
       <c r="F9" s="21"/>
-      <c r="J9" t="s">
-        <v>97</v>
-      </c>
-      <c r="O9" s="24"/>
-      <c r="P9" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q9" s="28" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="V9" s="24"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="str">
         <f>Compartments!$A10</f>
-        <v>hinf</v>
+        <v>hEs</v>
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
       <c r="D10" s="21"/>
       <c r="E10" s="23"/>
       <c r="F10" s="21"/>
-      <c r="K10" t="s">
-        <v>113</v>
-      </c>
-      <c r="O10" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="P10" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q10" s="28" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="L10" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="M10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="V10" s="24"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="str">
         <f>Compartments!$A11</f>
-        <v>himm</v>
+        <v>hP</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
       <c r="D11" s="21"/>
       <c r="E11" s="23"/>
       <c r="F11" s="21"/>
-      <c r="L11" t="s">
-        <v>130</v>
-      </c>
-      <c r="M11" t="s">
-        <v>114</v>
-      </c>
-      <c r="O11" s="24"/>
-      <c r="P11" s="28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="M11" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="P11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="U11" t="s">
+        <v>189</v>
+      </c>
+      <c r="V11" s="24"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="str">
         <f>Compartments!$A12</f>
-        <v>himmmls</v>
+        <v>hPt</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
       <c r="D12" s="21"/>
       <c r="E12" s="23"/>
       <c r="F12" s="21"/>
-      <c r="K12" t="s">
-        <v>142</v>
-      </c>
-      <c r="O12" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="P12" s="28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="V12" s="24"/>
+    </row>
+    <row r="13" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="str">
         <f>Compartments!$A13</f>
-        <v>hwan</v>
+        <v>hPA</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
       <c r="D13" s="21"/>
       <c r="E13" s="23"/>
       <c r="F13" s="21"/>
-      <c r="G13" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="K13" s="28" t="s">
-        <v>96</v>
-      </c>
       <c r="N13" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="O13" s="24"/>
-      <c r="P13" s="28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="O13" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="S13" s="24"/>
+      <c r="T13" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="V13" s="24"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="str">
         <f>Compartments!$A14</f>
-        <v>hwanmls</v>
+        <v>hPAs</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
       <c r="D14" s="21"/>
       <c r="E14" s="23"/>
       <c r="F14" s="21"/>
-      <c r="G14" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="K14" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="O14" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="P14" s="28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="P14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="T14" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="V14" s="24"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="str">
         <f>Compartments!$A15</f>
-        <v>htx</v>
-      </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+        <v>hfPA</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="P15" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q15" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="R15" s="28"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="V15" s="24"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="str">
         <f>Compartments!$A16</f>
-        <v>hdead</v>
+        <v>hfPAs</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
       <c r="D16" s="21"/>
       <c r="E16" s="23"/>
       <c r="F16" s="21"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="O16" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="P16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="T16" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="V16" s="24"/>
     </row>
     <row r="17" spans="1:28" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="str">
         <f>Compartments!$A17</f>
-        <v>hmdead</v>
+        <v>hA</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
       <c r="D17" s="21"/>
       <c r="E17" s="23"/>
       <c r="F17" s="21"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
+      <c r="G17" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="M17" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="R17" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="S17" s="24"/>
+      <c r="T17" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="V17" s="24"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="str">
         <f>Compartments!$A18</f>
-        <v>hbirth</v>
+        <v>hAs</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
       <c r="D18" s="21"/>
       <c r="E18" s="23"/>
       <c r="F18" s="21"/>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="N18" s="7"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="R18" s="28"/>
+      <c r="S18" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="T18" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="V18" s="24"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
+      <c r="A19" s="52" t="str">
+        <f>Compartments!$A19</f>
+        <v>hAt</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="R19" s="27"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="U19" s="27"/>
+      <c r="V19" s="26"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
+      <c r="A20" s="25" t="str">
+        <f>Compartments!$A20</f>
+        <v>hdd</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="21"/>
       <c r="N20" s="7"/>
       <c r="Q20"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="21"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="str">
+        <f>Compartments!$A21</f>
+        <v>hddd</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="21"/>
       <c r="K21" s="28"/>
       <c r="Q21"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="21"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="G22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="Q22"/>
+      <c r="A22" s="52" t="str">
+        <f>Compartments!$A22</f>
+        <v>hbb</v>
+      </c>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="20"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A23" s="25"/>
       <c r="M23" s="28"/>
       <c r="Q23"/>
     </row>
@@ -4451,13 +4680,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H46" sqref="H46"/>
+      <selection pane="bottomRight" activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4477,476 +4706,470 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="I1" s="35" t="s">
+      <c r="H1" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="L1" s="34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35">
+        <v>0</v>
+      </c>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="35" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="L2" s="35"/>
+    </row>
+    <row r="3" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="36" t="s">
+      <c r="B3" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="35">
+        <v>0</v>
+      </c>
+      <c r="F3" s="35">
+        <v>1</v>
+      </c>
+      <c r="G3" s="35"/>
+      <c r="H3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="35"/>
+    </row>
+    <row r="4" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="35">
+        <v>0.47</v>
+      </c>
+      <c r="E4" s="35">
+        <v>0</v>
+      </c>
+      <c r="F4" s="35">
+        <v>1</v>
+      </c>
+      <c r="G4" s="35"/>
+      <c r="H4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" s="35"/>
+    </row>
+    <row r="5" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35">
+        <v>0</v>
+      </c>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="35"/>
+    </row>
+    <row r="6" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="35">
+        <v>1</v>
+      </c>
+      <c r="E6" s="35">
+        <v>0</v>
+      </c>
+      <c r="F6" s="35"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="L6" s="35"/>
+    </row>
+    <row r="7" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="35">
+        <v>1</v>
+      </c>
+      <c r="E7" s="35">
+        <v>0</v>
+      </c>
+      <c r="F7" s="35"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="L7" s="35"/>
+    </row>
+    <row r="8" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="35">
+        <v>1</v>
+      </c>
+      <c r="E8" s="35">
+        <v>0</v>
+      </c>
+      <c r="F8" s="35"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="L8" s="35"/>
+    </row>
+    <row r="9" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35">
+        <v>0</v>
+      </c>
+      <c r="F9" s="35"/>
+      <c r="G9" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+    </row>
+    <row r="10" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35">
+        <v>0</v>
+      </c>
+      <c r="F10" s="35"/>
+      <c r="G10" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+    </row>
+    <row r="11" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35">
+        <v>0</v>
+      </c>
+      <c r="F11" s="35"/>
+      <c r="G11" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+    </row>
+    <row r="12" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35">
+        <v>0</v>
+      </c>
+      <c r="F12" s="35"/>
+      <c r="G12" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+    </row>
+    <row r="13" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35">
+        <v>0</v>
+      </c>
+      <c r="F13" s="35">
+        <v>1</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="49" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="36" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" s="36">
-        <v>0.95</v>
-      </c>
-      <c r="E2" s="36">
-        <v>0.9</v>
-      </c>
-      <c r="F2" s="36">
-        <v>1</v>
-      </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="L2" s="36"/>
-    </row>
-    <row r="3" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="36">
-        <v>0.95</v>
-      </c>
-      <c r="E3" s="36">
-        <v>0.9</v>
-      </c>
-      <c r="F3" s="36">
-        <v>1</v>
-      </c>
-      <c r="G3" s="36"/>
-      <c r="H3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="L3" s="36"/>
-    </row>
-    <row r="4" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="36">
-        <v>0.3</v>
-      </c>
-      <c r="E4" s="36">
-        <v>0</v>
-      </c>
-      <c r="F4" s="36">
-        <v>1</v>
-      </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="L4" s="36"/>
-    </row>
-    <row r="5" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36">
-        <v>0</v>
-      </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="L5" s="36"/>
-    </row>
-    <row r="6" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="36">
-        <v>0.05</v>
-      </c>
-      <c r="E6" s="36">
-        <v>0</v>
-      </c>
-      <c r="F6" s="36">
-        <v>1</v>
-      </c>
-      <c r="G6" s="36"/>
-      <c r="H6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="L6" s="36"/>
-    </row>
-    <row r="7" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="36">
-        <v>0.47</v>
-      </c>
-      <c r="E7" s="36">
-        <v>0</v>
-      </c>
-      <c r="F7" s="36">
-        <v>1</v>
-      </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="L7" s="36"/>
-    </row>
-    <row r="8" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>234</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36">
-        <v>0</v>
-      </c>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="L8" s="36"/>
-    </row>
-    <row r="9" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>202</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="36">
-        <v>1</v>
-      </c>
-      <c r="E9" s="36">
-        <v>0</v>
-      </c>
-      <c r="F9" s="36"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="L9" s="36"/>
-    </row>
-    <row r="10" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="36">
-        <v>1</v>
-      </c>
-      <c r="E10" s="36">
-        <v>0</v>
-      </c>
-      <c r="F10" s="36"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="L10" s="36"/>
-    </row>
-    <row r="11" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
-        <v>199</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>200</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="36">
-        <v>1</v>
-      </c>
-      <c r="E11" s="36">
-        <v>0</v>
-      </c>
-      <c r="F11" s="36"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="L11" s="36"/>
-    </row>
-    <row r="12" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36">
-        <v>0</v>
-      </c>
-      <c r="F12" s="36"/>
-      <c r="G12" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-    </row>
-    <row r="13" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36">
-        <v>0</v>
-      </c>
-      <c r="F13" s="36"/>
-      <c r="G13" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-    </row>
-    <row r="14" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>206</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>22</v>
       </c>
       <c r="D14" s="36"/>
       <c r="E14" s="36">
         <v>0</v>
       </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-    </row>
-    <row r="15" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36">
+      <c r="F14" s="36">
+        <v>1</v>
+      </c>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="L14" s="35"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="47" t="str">
+        <f>Transitions!C2</f>
+        <v>mex</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="5">
         <v>0</v>
       </c>
-      <c r="F15" s="36"/>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
       <c r="G15" s="28" t="s">
-        <v>166</v>
+        <v>107</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>7</v>
@@ -4957,687 +5180,694 @@
       <c r="J15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-    </row>
-    <row r="16" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36">
-        <v>0</v>
-      </c>
-      <c r="F16" s="36">
-        <v>1</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-    </row>
-    <row r="17" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36">
-        <v>0</v>
-      </c>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="L17" s="36"/>
-    </row>
-    <row r="18" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36">
-        <v>0</v>
-      </c>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="L18" s="36"/>
-    </row>
-    <row r="19" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36">
-        <v>0</v>
-      </c>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-    </row>
-    <row r="20" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36">
-        <v>0</v>
-      </c>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-    </row>
-    <row r="21" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36">
-        <v>0</v>
-      </c>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-    </row>
-    <row r="22" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="E22" s="36">
-        <v>0</v>
-      </c>
-      <c r="F22" s="36">
-        <v>1</v>
-      </c>
-      <c r="G22" s="36"/>
-      <c r="H22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K22" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="L22" s="36"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37">
-        <v>0</v>
-      </c>
-      <c r="F23" s="37">
-        <v>1</v>
-      </c>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="J23" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="K23" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="L23" s="36"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="52" t="str">
-        <f>Transitions!C2</f>
-        <v>mexposed</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="5">
-        <v>0</v>
-      </c>
-      <c r="F24" s="5">
-        <v>1</v>
-      </c>
-      <c r="G24" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L24" s="36"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="53" t="str">
+      <c r="L15" s="35"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="48" t="str">
         <f>Transitions!D3</f>
-        <v>minfected</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="5" t="s">
+        <v>minf</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D16" s="5">
         <f>25.55/365</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E16" s="5">
         <v>0</v>
       </c>
-      <c r="H25" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="L25" s="36"/>
-    </row>
-    <row r="26" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="38" t="s">
-        <v>208</v>
-      </c>
-      <c r="B26" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D26" s="36">
+      <c r="H16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L16" s="35"/>
+    </row>
+    <row r="17" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="35">
         <v>1</v>
       </c>
-      <c r="E26" s="36">
+      <c r="E17" s="35">
         <v>0</v>
       </c>
-      <c r="F26" s="36"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="36" t="s">
+      <c r="F17" s="35"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="I26" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="J26" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="K26" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="L26" s="36"/>
-    </row>
-    <row r="27" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="B27" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="C27" s="36" t="s">
+      <c r="I17" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="L17" s="35"/>
+    </row>
+    <row r="18" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36">
+      <c r="D18" s="35"/>
+      <c r="E18" s="35">
         <v>0</v>
       </c>
-      <c r="F27" s="36"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="I27" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="J27" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="K27" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="L27" s="36"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" s="5">
+      <c r="F18" s="35"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18" s="35"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E19" s="5">
         <v>0</v>
       </c>
-      <c r="H28" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="I28" s="36" t="s">
+      <c r="H19" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="J28" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" s="5">
+      <c r="J19" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="5">
         <v>0.9</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E20" s="5">
         <v>0</v>
       </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="I29" s="36" t="s">
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="L29" s="5"/>
-    </row>
-    <row r="30" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="B30" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36">
+      <c r="J20" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35">
         <v>0</v>
       </c>
-      <c r="F30" s="36"/>
-      <c r="G30" s="51" t="s">
-        <v>232</v>
-      </c>
-      <c r="H30" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="I30" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="J30" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="53" t="str">
+      <c r="F21" s="35"/>
+      <c r="G21" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="H21" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="48" t="str">
         <f>Transitions!B6</f>
-        <v>mnew</v>
-      </c>
-      <c r="B31" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="C31" s="48" t="s">
+        <v>mborn</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36">
+      <c r="D22" s="35"/>
+      <c r="E22" s="35">
         <v>0</v>
       </c>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L31" s="36"/>
-    </row>
-    <row r="32" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="B32" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D32" s="36">
+      <c r="F22" s="35"/>
+      <c r="G22" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L22" s="35"/>
+    </row>
+    <row r="23" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="35">
         <v>1</v>
       </c>
-      <c r="E32" s="36">
+      <c r="E23" s="35">
         <v>0</v>
       </c>
-      <c r="F32" s="36"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="36" t="s">
+      <c r="F23" s="35"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="I32" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="J32" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="K32" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="L32" s="36"/>
-    </row>
-    <row r="33" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="B33" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="36" t="s">
+      <c r="I23" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="L23" s="35"/>
+    </row>
+    <row r="24" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="36">
+      <c r="D24" s="35">
         <f>35/365</f>
         <v>9.5890410958904104E-2</v>
       </c>
-      <c r="E33" s="36">
+      <c r="E24" s="35">
         <v>0</v>
       </c>
-      <c r="F33" s="36"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="I33" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="J33" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="K33" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="L33" s="36"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="54" t="str">
+      <c r="F24" s="35"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="K24" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="L24" s="35"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="49" t="str">
         <f>Transitions!E4</f>
-        <v>mdeath</v>
-      </c>
-      <c r="B34" s="37" t="s">
-        <v>216</v>
-      </c>
-      <c r="C34" s="37" t="s">
+        <v>mdie</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37">
+      <c r="D25" s="36"/>
+      <c r="E25" s="36">
         <v>0</v>
       </c>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="H34" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="I34" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="J34" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="K34" s="37"/>
-      <c r="L34" s="36"/>
-    </row>
-    <row r="35" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="52" t="str">
+      <c r="F25" s="36"/>
+      <c r="G25" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="H25" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" s="36"/>
+      <c r="L25" s="35"/>
+    </row>
+    <row r="26" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="47" t="str">
         <f>Transitions!I7</f>
-        <v>exposed</v>
-      </c>
-      <c r="B35" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="C35" s="5" t="s">
+        <v>ex</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="38">
+      <c r="D26" s="5"/>
+      <c r="E26" s="37">
         <v>0</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F26" s="5">
         <v>1</v>
       </c>
-      <c r="G35" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K35" s="5"/>
-      <c r="L35" s="36"/>
-    </row>
-    <row r="36" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="52" t="str">
+      <c r="G26" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K26" s="5"/>
+      <c r="L26" s="35"/>
+    </row>
+    <row r="27" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="47" t="str">
         <f>Transitions!H7</f>
-        <v>symp</v>
-      </c>
-      <c r="B36" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="C36" s="5" t="s">
+        <v>mls</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="47">
+      <c r="D27" s="43">
         <f>1/1000</f>
         <v>1E-3</v>
       </c>
-      <c r="E36" s="38">
+      <c r="E27" s="37">
         <v>0</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F27" s="5">
         <v>1</v>
       </c>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="L36" s="5"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="52" t="s">
-        <v>137</v>
-      </c>
-      <c r="B37" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="C37" s="5" t="s">
+      <c r="G27" s="5"/>
+      <c r="H27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="47">
+      <c r="D28" s="43">
         <f>7/365</f>
         <v>1.9178082191780823E-2</v>
       </c>
-      <c r="E37" s="38">
+      <c r="E28" s="37">
         <v>0</v>
       </c>
+      <c r="H28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="5">
+        <f>14/365</f>
+        <v>3.8356164383561646E-2</v>
+      </c>
+      <c r="E29" s="37">
+        <v>0</v>
+      </c>
+      <c r="G29" s="45"/>
+      <c r="H29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="5">
+        <f>10/365</f>
+        <v>2.7397260273972601E-2</v>
+      </c>
+      <c r="E30" s="37">
+        <v>0</v>
+      </c>
+      <c r="G30" s="45"/>
+      <c r="H30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="5">
+        <f>30/365</f>
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="E31" s="5">
+        <f>5/365</f>
+        <v>1.3698630136986301E-2</v>
+      </c>
+      <c r="F31" s="5">
+        <f>60/365</f>
+        <v>0.16438356164383561</v>
+      </c>
+      <c r="G31" s="45"/>
+      <c r="H31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="5">
+        <f>90/365</f>
+        <v>0.24657534246575341</v>
+      </c>
+      <c r="E32" s="5">
+        <f>60/365</f>
+        <v>0.16438356164383561</v>
+      </c>
+      <c r="F32" s="5">
+        <v>5</v>
+      </c>
+      <c r="G32" s="45"/>
+      <c r="H32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="L32" s="5"/>
+    </row>
+    <row r="33" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="5">
+        <f>20/365</f>
+        <v>5.4794520547945202E-2</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="L33" s="5"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="5">
+        <f>20/365</f>
+        <v>5.4794520547945202E-2</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0</v>
+      </c>
+      <c r="G34" s="45"/>
+      <c r="H34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="48" t="s">
+        <v>207</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5">
+        <v>0</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="L35" s="5"/>
+    </row>
+    <row r="36" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="48" t="s">
+        <v>208</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5">
+        <v>0</v>
+      </c>
+      <c r="F36" s="5"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="L36" s="5"/>
+    </row>
+    <row r="37" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5">
+        <v>0</v>
+      </c>
+      <c r="F37" s="5"/>
+      <c r="G37" s="45"/>
       <c r="H37" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>7</v>
@@ -5646,27 +5876,26 @@
         <v>7</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>100</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="L37" s="5"/>
     </row>
     <row r="38" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="52" t="s">
-        <v>145</v>
-      </c>
-      <c r="B38" s="38" t="s">
-        <v>147</v>
+      <c r="A38" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>215</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D38" s="5"/>
-      <c r="E38" s="38">
+      <c r="E38" s="5">
         <v>0</v>
       </c>
       <c r="F38" s="5"/>
-      <c r="G38" s="5" t="s">
-        <v>194</v>
-      </c>
+      <c r="G38" s="45"/>
       <c r="H38" s="5" t="s">
         <v>8</v>
       </c>
@@ -5676,27 +5905,27 @@
       <c r="J38" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K38" s="5"/>
+      <c r="K38" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="L38" s="5"/>
     </row>
     <row r="39" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="52" t="s">
-        <v>146</v>
-      </c>
-      <c r="B39" s="38" t="s">
-        <v>148</v>
+      <c r="A39" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D39" s="5"/>
-      <c r="E39" s="38">
+      <c r="E39" s="5">
         <v>0</v>
       </c>
       <c r="F39" s="5"/>
-      <c r="G39" s="5" t="s">
-        <v>195</v>
-      </c>
+      <c r="G39" s="45"/>
       <c r="H39" s="5" t="s">
         <v>8</v>
       </c>
@@ -5706,28 +5935,27 @@
       <c r="J39" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K39" s="5"/>
+      <c r="K39" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="L39" s="5"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="52" t="str">
-        <f>Transitions!J9</f>
-        <v>infected</v>
-      </c>
-      <c r="B40" s="38" t="s">
-        <v>80</v>
+      <c r="A40" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D40" s="5">
-        <f>14/365</f>
-        <v>3.8356164383561646E-2</v>
-      </c>
-      <c r="E40" s="38">
+        <v>17</v>
+      </c>
+      <c r="E40" s="5">
         <v>0</v>
       </c>
-      <c r="G40" s="50"/>
+      <c r="F40" s="5">
+        <v>1</v>
+      </c>
       <c r="H40" s="5" t="s">
         <v>7</v>
       </c>
@@ -5738,134 +5966,116 @@
         <v>7</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>221</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="52" t="str">
-        <f>Transitions!K10</f>
-        <v>dev_imm</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41" s="5">
-        <f>10/365</f>
-        <v>2.7397260273972601E-2</v>
-      </c>
-      <c r="E41" s="38">
+      <c r="A41" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="B41" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36">
         <v>0</v>
       </c>
-      <c r="G41" s="50"/>
-      <c r="H41" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K41" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="52" t="str">
-        <f>Transitions!M11</f>
-        <v>wan_imm</v>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="J41" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="K41" s="36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D42" s="5">
-        <f>30/365</f>
-        <v>8.2191780821917804E-2</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D42" s="5"/>
       <c r="E42" s="5">
-        <f>5/365</f>
-        <v>1.3698630136986301E-2</v>
+        <v>0</v>
       </c>
       <c r="F42" s="5">
-        <f>60/365</f>
-        <v>0.16438356164383561</v>
-      </c>
-      <c r="G42" s="50"/>
+        <v>1</v>
+      </c>
+      <c r="G42" s="5"/>
       <c r="H42" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J42" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>221</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="L42" s="5"/>
     </row>
     <row r="43" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="52" t="str">
-        <f>Transitions!G13</f>
-        <v>los_imm</v>
+      <c r="A43" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D43" s="5">
-        <f>90/365</f>
-        <v>0.24657534246575341</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D43" s="5"/>
       <c r="E43" s="5">
-        <f>60/365</f>
-        <v>0.16438356164383561</v>
-      </c>
-      <c r="F43" s="5">
-        <v>5</v>
-      </c>
-      <c r="G43" s="50"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
       <c r="H43" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J43" s="5" t="s">
         <v>7</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>221</v>
+        <v>146</v>
       </c>
       <c r="L43" s="5"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="55" t="str">
-        <f>Transitions!G15</f>
-        <v>recover</v>
+      <c r="A44" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D44" s="5">
-        <f>20/365</f>
-        <v>5.4794520547945202E-2</v>
+        <v>22</v>
       </c>
       <c r="E44" s="5">
         <v>0</v>
       </c>
-      <c r="G44" s="50"/>
+      <c r="G44" s="5" t="s">
+        <v>226</v>
+      </c>
       <c r="H44" s="5" t="s">
         <v>7</v>
       </c>
@@ -5873,224 +6083,15 @@
         <v>7</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K44" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="56" t="str">
-        <f>Transitions!O8</f>
-        <v>streated</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E45" s="5">
-        <v>0</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J45" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="56" t="str">
-        <f>Transitions!O10</f>
-        <v>treated</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5">
-        <v>0</v>
-      </c>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J46" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="52" t="str">
-        <f>Transitions!P7</f>
-        <v>death</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E47" s="5">
-        <v>0</v>
-      </c>
-      <c r="F47" s="5">
-        <v>1</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J47" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K47" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="54" t="str">
-        <f>Transitions!G18</f>
-        <v>birth</v>
-      </c>
-      <c r="B48" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="C48" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37">
-        <v>0</v>
-      </c>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="I48" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="J48" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="K48" s="37" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5">
-        <v>0</v>
-      </c>
-      <c r="F49" s="5">
-        <v>1</v>
-      </c>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K49" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="L49" s="5"/>
-    </row>
-    <row r="50" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5">
-        <v>0</v>
-      </c>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J50" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K50" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="L50" s="5"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E51" s="5">
-        <v>0</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J51" s="5" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:J51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:J44">
       <formula1>"y,n"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C44">
       <formula1>",number,probability,duration,proportion"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6102,10 +6103,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6133,7 +6134,7 @@
         <v>9</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>10</v>
@@ -6148,7 +6149,7 @@
         <v>20</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>21</v>
@@ -6156,13 +6157,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
@@ -6180,13 +6181,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>216</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>217</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>131</v>
+        <v>218</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -6202,63 +6203,65 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="2">
         <v>0</v>
       </c>
       <c r="G4" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="2">
-        <v>0</v>
+      <c r="H4" s="29"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9">
+        <v>1</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>63</v>
+        <v>222</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -6266,54 +6269,55 @@
         <v>1</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="13"/>
       <c r="F7" s="9">
         <v>1</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="I7" s="9"/>
+      <c r="H7" s="40" t="s">
+        <v>54</v>
+      </c>
       <c r="J7" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>64</v>
+        <v>37</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>216</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="9">
@@ -6322,39 +6326,18 @@
       <c r="G8" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="44" t="s">
-        <v>81</v>
+      <c r="H8" s="40" t="s">
+        <v>66</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>60</v>
-      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="13"/>
       <c r="E9" s="13"/>
-      <c r="F9" s="9">
-        <v>1</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>7</v>
-      </c>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10" s="2"/>
@@ -6369,9 +6352,6 @@
       <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C12" s="2"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -6383,24 +6363,21 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G16" s="9"/>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="40"/>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="44"/>
+      <c r="C20" s="40"/>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="44"/>
+      <c r="C21" s="40"/>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="44"/>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="44"/>
+      <c r="C22" s="40"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G9 J2:J9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J8 G2:G8">
       <formula1>"y,n"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6425,46 +6402,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="39" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="C2" s="44">
+      <c r="A2" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="40">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
-        <v>203</v>
-      </c>
-      <c r="B3" s="45" t="s">
-        <v>204</v>
-      </c>
-      <c r="C3" s="44">
+      <c r="A3" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="40">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
-        <v>167</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>164</v>
-      </c>
-      <c r="C4" s="44">
+      <c r="A4" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="40">
         <v>1</v>
       </c>
     </row>
@@ -6480,7 +6457,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6499,18 +6476,18 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>51</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -6547,174 +6524,118 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="39" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>169</v>
+        <v>95</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>170</v>
+        <v>96</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>171</v>
+        <v>97</v>
       </c>
       <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>172</v>
+        <v>98</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>173</v>
+        <v>99</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>174</v>
+        <v>100</v>
       </c>
       <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>177</v>
+        <v>103</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>173</v>
+        <v>99</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>175</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>173</v>
+        <v>99</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>175</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>112</v>
+        <v>99</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>105</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>111</v>
+        <v>99</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>173</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" t="s">
+        <v>99</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>180</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="C9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>181</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="C10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>236</v>
-      </c>
-      <c r="B11" t="s">
-        <v>173</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D11" t="s">
-        <v>175</v>
+        <v>144</v>
+      </c>
+      <c r="D7" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
